--- a/QuantLibXL/Data2/XLS/JPY_SynthQuotesFeed.xlsx
+++ b/QuantLibXL/Data2/XLS/JPY_SynthQuotesFeed.xlsx
@@ -1423,25 +1423,7 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="26" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="46" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1499,9 +1481,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="18" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="4" fillId="4" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1523,6 +1502,16 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1532,7 +1521,18 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Euro" xfId="1"/>
@@ -1625,7 +1625,7 @@
       <sheetData sheetId="0">
         <row r="7">
           <cell r="D7">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="8">
@@ -1722,24 +1722,24 @@
       <sheetData sheetId="9">
         <row r="7">
           <cell r="D7" t="str">
-            <v>Q4</v>
+            <v>U4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>U4</v>
+            <v>V4</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="10">
         <row r="7">
           <cell r="D7" t="str">
-            <v>Q4</v>
+            <v>U4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="D8" t="str">
-            <v>U4</v>
+            <v>V4</v>
           </cell>
         </row>
       </sheetData>
@@ -2137,449 +2137,449 @@
   <dimension ref="A1:AI29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.83203125" style="205" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="205" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="205" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="2.83203125" style="205" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="205" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.33203125" style="205" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" style="205" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="205"/>
+    <col min="1" max="2" width="2.83203125" style="200" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="200" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="200" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="2.83203125" style="200" customWidth="1"/>
+    <col min="8" max="8" width="27.5" style="200" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.33203125" style="200" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" style="200" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="200"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="205" t="str">
+      <c r="B1" s="200" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
         <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="244" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="201"/>
-      <c r="G2" s="250" t="s">
+      <c r="C2" s="245"/>
+      <c r="D2" s="245"/>
+      <c r="E2" s="246"/>
+      <c r="G2" s="247" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="252"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="249"/>
     </row>
     <row r="3" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="207"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="209"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="212"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="203"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="206"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="207"/>
-      <c r="C4" s="213" t="s">
+      <c r="B4" s="201"/>
+      <c r="C4" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="214" t="s">
+      <c r="D4" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="209"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="215" t="s">
+      <c r="E4" s="203"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="209" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="217"/>
-    </row>
-    <row r="5" spans="1:35" s="219" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="205"/>
-      <c r="B5" s="207"/>
-      <c r="C5" s="213" t="s">
+      <c r="I4" s="210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="211"/>
+    </row>
+    <row r="5" spans="1:35" s="213" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="200"/>
+      <c r="B5" s="201"/>
+      <c r="C5" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="218" t="s">
+      <c r="D5" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="209"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="210"/>
-      <c r="H5" s="215" t="s">
+      <c r="E5" s="203"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="209" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="216" t="b">
+      <c r="I5" s="210" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="217"/>
-      <c r="K5" s="205"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
-      <c r="O5" s="205"/>
-      <c r="P5" s="205"/>
-      <c r="Q5" s="205"/>
-      <c r="R5" s="205"/>
-      <c r="S5" s="205"/>
-      <c r="T5" s="205"/>
-      <c r="U5" s="205"/>
-      <c r="V5" s="205"/>
-      <c r="W5" s="205"/>
-      <c r="X5" s="205"/>
-      <c r="Y5" s="205"/>
-      <c r="Z5" s="205"/>
-      <c r="AA5" s="205"/>
-      <c r="AB5" s="205"/>
-      <c r="AC5" s="205"/>
-      <c r="AD5" s="205"/>
-      <c r="AE5" s="205"/>
-      <c r="AF5" s="205"/>
-      <c r="AG5" s="205"/>
-      <c r="AH5" s="205"/>
-      <c r="AI5" s="205"/>
-    </row>
-    <row r="6" spans="1:35" s="219" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="205"/>
-      <c r="B6" s="207"/>
-      <c r="C6" s="213" t="s">
+      <c r="J5" s="211"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="200"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="200"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="200"/>
+      <c r="AA5" s="200"/>
+      <c r="AB5" s="200"/>
+      <c r="AC5" s="200"/>
+      <c r="AD5" s="200"/>
+      <c r="AE5" s="200"/>
+      <c r="AF5" s="200"/>
+      <c r="AG5" s="200"/>
+      <c r="AH5" s="200"/>
+      <c r="AI5" s="200"/>
+    </row>
+    <row r="6" spans="1:35" s="213" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="200"/>
+      <c r="B6" s="201"/>
+      <c r="C6" s="207" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="218" t="str">
+      <c r="D6" s="212" t="str">
         <f>IF(UPPER(Currency)&lt;&gt;"EUR","L","")&amp;"ibor"</f>
         <v>Libor</v>
       </c>
-      <c r="E6" s="209"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="215" t="s">
+      <c r="E6" s="203"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="204"/>
+      <c r="H6" s="209" t="s">
         <v>62</v>
       </c>
-      <c r="I6" s="216" t="b">
+      <c r="I6" s="210" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="217"/>
-      <c r="K6" s="205"/>
-      <c r="L6" s="205"/>
-      <c r="M6" s="205"/>
-      <c r="N6" s="205"/>
-      <c r="O6" s="205"/>
-      <c r="P6" s="205"/>
-      <c r="Q6" s="205"/>
-      <c r="R6" s="205"/>
-      <c r="S6" s="205"/>
-      <c r="T6" s="205"/>
-      <c r="U6" s="205"/>
-      <c r="V6" s="205"/>
-      <c r="W6" s="205"/>
-      <c r="X6" s="205"/>
-      <c r="Y6" s="205"/>
-      <c r="Z6" s="205"/>
-      <c r="AA6" s="205"/>
-      <c r="AB6" s="205"/>
-      <c r="AC6" s="205"/>
-      <c r="AD6" s="205"/>
-      <c r="AE6" s="205"/>
-      <c r="AF6" s="205"/>
-      <c r="AG6" s="205"/>
-      <c r="AH6" s="205"/>
-      <c r="AI6" s="205"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="200"/>
+      <c r="U6" s="200"/>
+      <c r="V6" s="200"/>
+      <c r="W6" s="200"/>
+      <c r="X6" s="200"/>
+      <c r="Y6" s="200"/>
+      <c r="Z6" s="200"/>
+      <c r="AA6" s="200"/>
+      <c r="AB6" s="200"/>
+      <c r="AC6" s="200"/>
+      <c r="AD6" s="200"/>
+      <c r="AE6" s="200"/>
+      <c r="AF6" s="200"/>
+      <c r="AG6" s="200"/>
+      <c r="AH6" s="200"/>
+      <c r="AI6" s="200"/>
     </row>
     <row r="7" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="207"/>
-      <c r="C7" s="213" t="s">
+      <c r="B7" s="201"/>
+      <c r="C7" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="220" t="s">
+      <c r="D7" s="214" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="209"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="215" t="s">
+      <c r="E7" s="203"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="209" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="221"/>
-      <c r="J7" s="217"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="211"/>
     </row>
     <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="207"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="222"/>
-      <c r="E8" s="209"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="215" t="s">
+      <c r="B8" s="201"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="203"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="217"/>
+      <c r="I8" s="217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="211"/>
     </row>
     <row r="9" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="207"/>
-      <c r="C9" s="213" t="s">
+      <c r="B9" s="201"/>
+      <c r="C9" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="224" t="str">
+      <c r="D9" s="218" t="str">
         <f>Currency&amp;"ON"</f>
         <v>JPYON</v>
       </c>
-      <c r="E9" s="209"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="212"/>
+      <c r="E9" s="203"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="206"/>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="207"/>
-      <c r="C10" s="208"/>
-      <c r="D10" s="208"/>
-      <c r="E10" s="209"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="215" t="s">
+      <c r="B10" s="201"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="203"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="223" t="s">
+      <c r="I10" s="217" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="217"/>
+      <c r="J10" s="211"/>
     </row>
     <row r="11" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="207"/>
-      <c r="C11" s="225" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="226">
-        <v>41809.403344907405</v>
-      </c>
-      <c r="E11" s="209"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="215" t="s">
+      <c r="B11" s="201"/>
+      <c r="C11" s="219" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="220">
+        <v>41858.74827546296</v>
+      </c>
+      <c r="E11" s="203"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="209" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="227">
+      <c r="I11" s="221">
         <v>1E-4</v>
       </c>
-      <c r="J11" s="217"/>
+      <c r="J11" s="211"/>
     </row>
     <row r="12" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="207"/>
-      <c r="C12" s="225" t="s">
+      <c r="B12" s="201"/>
+      <c r="C12" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="228" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="209"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="215" t="s">
+      <c r="D12" s="222" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="203"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="209" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="229">
+      <c r="I12" s="223">
         <v>-0.01</v>
       </c>
-      <c r="J12" s="217"/>
+      <c r="J12" s="211"/>
     </row>
     <row r="13" spans="1:35" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="230"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="232"/>
-      <c r="G13" s="233"/>
-      <c r="H13" s="234"/>
-      <c r="I13" s="234"/>
-      <c r="J13" s="235"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="225"/>
+      <c r="E13" s="226"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="228"/>
+      <c r="I13" s="228"/>
+      <c r="J13" s="229"/>
     </row>
     <row r="14" spans="1:35" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:35" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="236" t="s">
+      <c r="B15" s="250" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="200" t="s">
+      <c r="C15" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="200"/>
-      <c r="E15" s="201"/>
-      <c r="G15" s="236" t="s">
+      <c r="D15" s="245"/>
+      <c r="E15" s="246"/>
+      <c r="G15" s="250" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="200" t="s">
+      <c r="H15" s="245" t="s">
         <v>86</v>
       </c>
-      <c r="I15" s="200"/>
-      <c r="J15" s="201"/>
+      <c r="I15" s="245"/>
+      <c r="J15" s="246"/>
     </row>
     <row r="16" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="207"/>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="237"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="253"/>
-      <c r="I16" s="208"/>
-      <c r="J16" s="237"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="230"/>
+      <c r="G16" s="201"/>
+      <c r="H16" s="243"/>
+      <c r="I16" s="202"/>
+      <c r="J16" s="230"/>
     </row>
     <row r="17" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="207"/>
-      <c r="C17" s="213" t="s">
+      <c r="B17" s="201"/>
+      <c r="C17" s="207" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="238">
+      <c r="D17" s="231">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"2D","f")</f>
-        <v>41831</v>
-      </c>
-      <c r="E17" s="209"/>
-      <c r="G17" s="207"/>
-      <c r="H17" s="213" t="s">
+        <v>41862</v>
+      </c>
+      <c r="E17" s="203"/>
+      <c r="G17" s="201"/>
+      <c r="H17" s="207" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="238">
-        <v>41829.516250000001</v>
-      </c>
-      <c r="J17" s="209"/>
+      <c r="I17" s="231">
+        <v>41858.746701388889</v>
+      </c>
+      <c r="J17" s="203"/>
     </row>
     <row r="18" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="207"/>
-      <c r="C18" s="213" t="s">
+      <c r="B18" s="201"/>
+      <c r="C18" s="207" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="238" t="str">
+      <c r="D18" s="231" t="str">
         <f>_xll.qlDiscountingSwapEngine(,OisCurve,,,,,EvaluationDate)</f>
-        <v>obj_0037f#0004</v>
-      </c>
-      <c r="E18" s="209"/>
-      <c r="G18" s="207"/>
-      <c r="H18" s="213" t="s">
+        <v>obj_0037f#0000</v>
+      </c>
+      <c r="E18" s="203"/>
+      <c r="G18" s="201"/>
+      <c r="H18" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="238">
+      <c r="I18" s="231">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41829</v>
-      </c>
-      <c r="J18" s="209"/>
+        <v>41858</v>
+      </c>
+      <c r="J18" s="203"/>
     </row>
     <row r="19" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="207"/>
-      <c r="C19" s="213" t="s">
+      <c r="B19" s="201"/>
+      <c r="C19" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="238">
+      <c r="D19" s="231">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(SettlementDate),12,31),"Preceding")</f>
         <v>42004</v>
       </c>
-      <c r="E19" s="209"/>
-      <c r="G19" s="207"/>
-      <c r="H19" s="213" t="s">
+      <c r="E19" s="203"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="207" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="239">
+      <c r="I19" s="232">
         <f>[1]!TriggerCounter</f>
-        <v>5</v>
-      </c>
-      <c r="J19" s="209"/>
+        <v>3</v>
+      </c>
+      <c r="J19" s="203"/>
     </row>
     <row r="20" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="207"/>
-      <c r="C20" s="213" t="s">
+      <c r="B20" s="201"/>
+      <c r="C20" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="238">
+      <c r="D20" s="231">
         <f>_xll.qlCalendarAdjust(Calendar,DATE(YEAR(SettlementDate)+1,12,31),"Preceding")</f>
         <v>42369</v>
       </c>
-      <c r="E20" s="209"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="213" t="s">
+      <c r="E20" s="203"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="239">
+      <c r="I20" s="232">
         <f>[1]!LastFixingsTrigger</f>
         <v>0</v>
       </c>
-      <c r="J20" s="209"/>
+      <c r="J20" s="203"/>
     </row>
     <row r="21" spans="2:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="230"/>
-      <c r="C21" s="231"/>
-      <c r="D21" s="231"/>
-      <c r="E21" s="232"/>
-      <c r="G21" s="230"/>
-      <c r="H21" s="231"/>
-      <c r="I21" s="231"/>
-      <c r="J21" s="232"/>
+      <c r="B21" s="224"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="225"/>
+      <c r="E21" s="226"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="225"/>
+      <c r="I21" s="225"/>
+      <c r="J21" s="226"/>
     </row>
     <row r="22" spans="2:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="240"/>
-      <c r="D22" s="240"/>
-      <c r="E22" s="240"/>
+      <c r="C22" s="233"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="233"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="202" t="s">
+      <c r="B23" s="251" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="204"/>
+      <c r="C23" s="252"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="253"/>
     </row>
     <row r="24" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="241"/>
-      <c r="C24" s="242"/>
-      <c r="D24" s="242"/>
-      <c r="E24" s="243"/>
+      <c r="B24" s="234"/>
+      <c r="C24" s="235"/>
+      <c r="D24" s="235"/>
+      <c r="E24" s="236"/>
     </row>
     <row r="25" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="241"/>
-      <c r="C25" s="244" t="s">
+      <c r="B25" s="234"/>
+      <c r="C25" s="237" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="245" t="s">
+      <c r="D25" s="238" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="243"/>
+      <c r="E25" s="236"/>
     </row>
     <row r="26" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="241"/>
-      <c r="C26" s="244" t="s">
+      <c r="B26" s="234"/>
+      <c r="C26" s="237" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="246" t="s">
+      <c r="D26" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="243"/>
+      <c r="E26" s="236"/>
     </row>
     <row r="27" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="241"/>
-      <c r="C27" s="244" t="s">
+      <c r="B27" s="234"/>
+      <c r="C27" s="237" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="246" t="b">
+      <c r="D27" s="239" t="b">
         <f>_xll.qlCalendarIsHoliday(LocalCalendar,_xll.qlCalendarAdvance(LiborCalendar,_xll.qlSettingsEvaluationDate(Trigger),"2D","f",FALSE,Trigger))</f>
         <v>0</v>
       </c>
-      <c r="E27" s="243"/>
+      <c r="E27" s="236"/>
     </row>
     <row r="28" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="241"/>
-      <c r="C28" s="244" t="s">
+      <c r="B28" s="234"/>
+      <c r="C28" s="237" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="246" t="str">
+      <c r="D28" s="239" t="str">
         <f>IF(D27,LocalCalendar,LiborCalendar)</f>
         <v>UnitedKingdom::Exchange</v>
       </c>
-      <c r="E28" s="243"/>
+      <c r="E28" s="236"/>
     </row>
     <row r="29" spans="2:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="247"/>
-      <c r="C29" s="248"/>
-      <c r="D29" s="248"/>
-      <c r="E29" s="249"/>
+      <c r="B29" s="240"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2615,7 +2615,7 @@
   <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B2" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E2,F2,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003be#0004</v>
+        <v>obj_003bd#0002</v>
       </c>
       <c r="C2" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B2,OisEngine)</f>
@@ -2711,23 +2711,23 @@
       </c>
       <c r="E2" s="97">
         <f>SettlementDate</f>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F2" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,E2,A3,"mf")</f>
-        <v>41862</v>
+        <v>41893</v>
       </c>
       <c r="G2" s="99">
         <f>_xll.qlQuoteValue($D2,AllTriggers)</f>
-        <v>9.7860000000000004E-4</v>
+        <v>9.2140000000000017E-4</v>
       </c>
       <c r="H2" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B2,_xll.ohTrigger(C2,InterestRatesTrigger))</f>
-        <v>6.4109589040816468E-4</v>
+        <v>6.4109588928905998E-4</v>
       </c>
       <c r="I2" s="101">
         <f>G2-H2</f>
-        <v>3.3750410959183536E-4</v>
+        <v>2.8030411071094019E-4</v>
       </c>
       <c r="J2" s="102" t="b">
         <v>0</v>
@@ -2767,7 +2767,7 @@
       </c>
       <c r="B3" s="50" t="str">
         <f>_xll.qlMakeDatedOIS(,E3,F3,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0037c#0005</v>
+        <v>obj_0037b#0007</v>
       </c>
       <c r="C3" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B3,OisEngine)</f>
@@ -2779,27 +2779,27 @@
       </c>
       <c r="E3" s="90">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D3),_xll.qlInterestRateIndexFixingDays(A4)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41822</v>
+        <v>41862</v>
       </c>
       <c r="F3" s="91">
         <f>F2</f>
-        <v>41862</v>
+        <v>41893</v>
       </c>
       <c r="G3" s="92">
         <f>_xll.qlQuoteValue(D3,AllTriggers)</f>
-        <v>9.7860000000000004E-4</v>
-      </c>
-      <c r="H3" s="93" t="e">
+        <v>9.2140000000000017E-4</v>
+      </c>
+      <c r="H3" s="93">
         <f>_xll.qlOvernightIndexedSwapFairRate(B3,_xll.ohTrigger(C3,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I3" s="94" t="e">
+        <v>6.4109588928905998E-4</v>
+      </c>
+      <c r="I3" s="94">
         <f t="shared" ref="I3:I27" si="1">G3-H3</f>
-        <v>#NUM!</v>
+        <v>2.8030411071094019E-4</v>
       </c>
       <c r="J3" s="102" t="b">
         <f>NOT(ISERROR(I3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="104" t="e">
         <f>K4</f>
@@ -2812,7 +2812,7 @@
       <c r="M3" s="103"/>
       <c r="N3" s="105">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="O3" s="105">
         <f t="shared" si="0"/>
@@ -2820,16 +2820,16 @@
       </c>
       <c r="P3" s="105">
         <f>(O3^2-N3^2)/(O3-N3)</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="102"/>
       <c r="R3" s="116">
         <f>(O3^3-N3^3)/3/(O3-N3)</f>
-        <v>254.33333333333334</v>
+        <v>320.33333333333337</v>
       </c>
       <c r="S3" s="116">
         <f>(O3+N3)/2</f>
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="T3" s="116">
         <v>1</v>
@@ -2853,11 +2853,11 @@
       </c>
       <c r="E4" s="48">
         <f>F3</f>
-        <v>41862</v>
+        <v>41893</v>
       </c>
       <c r="F4" s="49">
         <f>F5</f>
-        <v>41893</v>
+        <v>41925</v>
       </c>
       <c r="G4" s="27" t="e">
         <f>((1+G5*(F5-E5)/360)/(1+G3*(F3-E3)/360)-1)/(F4-E4)*360</f>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="H4" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B4,_xll.ohTrigger(C4,InterestRatesTrigger))</f>
-        <v>6.4106050035856431E-4</v>
+        <v>6.4106050737387169E-4</v>
       </c>
       <c r="I4" s="16" t="e">
         <f>G4-H4</f>
@@ -2890,19 +2890,19 @@
       </c>
       <c r="O4" s="106">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P4" s="106">
         <f>(O4^2-N4^2)/(O4-N4)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R4" s="85">
         <f>(O4^3-N4^3)/3/(O4-N4)</f>
-        <v>2242.333333333333</v>
+        <v>2294.3333333333335</v>
       </c>
       <c r="S4" s="85">
         <f>(O4+N4)/2</f>
-        <v>46.5</v>
+        <v>47</v>
       </c>
       <c r="T4" s="85">
         <v>1</v>
@@ -2918,11 +2918,11 @@
       </c>
       <c r="E5" s="48">
         <f>SettlementDate</f>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F5" s="49">
         <f>_xll.qlCalendarAdvance(Calendar,E5,"2M","mf")</f>
-        <v>41893</v>
+        <v>41925</v>
       </c>
       <c r="G5" s="45" t="e">
         <f>_xll.qlQuoteValue(D5,AllTriggers)</f>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B6" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E6,F6,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b7#0004</v>
+        <v>obj_003c1#0000</v>
       </c>
       <c r="C6" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B6,OisEngine)</f>
@@ -2961,23 +2961,23 @@
       </c>
       <c r="E6" s="97">
         <f>SettlementDate</f>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F6" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,E6,A7,"mf")</f>
-        <v>41925</v>
+        <v>41954</v>
       </c>
       <c r="G6" s="99">
         <f>_xll.qlQuoteValue(D6,AllTriggers)</f>
-        <v>1.3286000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H6" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B6,_xll.ohTrigger(C6,InterestRatesTrigger))</f>
-        <v>6.1643835616399583E-4</v>
+        <v>6.1643835708468742E-4</v>
       </c>
       <c r="I6" s="101">
         <f t="shared" si="1"/>
-        <v>7.1216164383600426E-4</v>
+        <v>6.8356164291531252E-4</v>
       </c>
       <c r="J6" s="102" t="b">
         <v>0</v>
@@ -2991,20 +2991,20 @@
       </c>
       <c r="O6" s="105">
         <f t="shared" ref="O6:O27" si="3">F6-SettlementDate</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P6" s="105">
         <f>(O6^2-N6^2)/(O6-N6)</f>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="102"/>
       <c r="R6" s="116">
         <f t="shared" ref="R6:R14" si="4">(O6^3-N6^3)/3/(O6-N6)</f>
-        <v>2945.333333333333</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="S6" s="116">
         <f t="shared" ref="S6:S14" si="5">(O6+N6)/2</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T6" s="116">
         <v>1</v>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B7" s="50" t="str">
         <f>_xll.qlMakeDatedOIS(,E7,F7,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0037b#0005</v>
+        <v>obj_0037c#0003</v>
       </c>
       <c r="C7" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B7,OisEngine)</f>
@@ -3029,51 +3029,51 @@
       </c>
       <c r="E7" s="90">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D7),_xll.qlInterestRateIndexFixingDays(A8)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41822</v>
+        <v>41862</v>
       </c>
       <c r="F7" s="91">
         <f>F6</f>
-        <v>41925</v>
+        <v>41954</v>
       </c>
       <c r="G7" s="92">
         <f>_xll.qlQuoteValue(D7,AllTriggers)</f>
-        <v>1.3286000000000001E-3</v>
-      </c>
-      <c r="H7" s="93" t="e">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H7" s="93">
         <f>_xll.qlOvernightIndexedSwapFairRate(B7,_xll.ohTrigger(C7,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I7" s="94" t="e">
+        <v>6.1643835708468742E-4</v>
+      </c>
+      <c r="I7" s="94">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>6.8356164291531252E-4</v>
       </c>
       <c r="J7" s="102" t="b">
         <f>AND(ISERROR(I8),ISERROR(I9),NOT(ISERROR(I7)),E10&lt;&gt;SettlementDate)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="109"/>
       <c r="L7" s="103"/>
       <c r="M7" s="103"/>
       <c r="N7" s="105">
         <f t="shared" si="2"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="O7" s="105">
         <f t="shared" si="3"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P7" s="105">
         <f t="shared" ref="P7:P14" si="6">(O7^2-N7^2)/(O7-N7)</f>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="102"/>
       <c r="R7" s="116">
         <f t="shared" si="4"/>
-        <v>2690.333333333333</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="S7" s="116">
         <f t="shared" si="5"/>
-        <v>42.5</v>
+        <v>46</v>
       </c>
       <c r="T7" s="116">
         <v>1</v>
@@ -3104,11 +3104,11 @@
       <c r="M8" s="103"/>
       <c r="N8" s="105">
         <f t="shared" si="2"/>
-        <v>-41831</v>
+        <v>-41862</v>
       </c>
       <c r="O8" s="105">
         <f t="shared" si="3"/>
-        <v>-41831</v>
+        <v>-41862</v>
       </c>
       <c r="P8" s="105" t="e">
         <f t="shared" si="6"/>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="S8" s="116">
         <f t="shared" si="5"/>
-        <v>-41831</v>
+        <v>-41862</v>
       </c>
       <c r="T8" s="116">
         <v>1</v>
@@ -3152,20 +3152,20 @@
       </c>
       <c r="K9" s="93">
         <f>AVERAGE(_xll.ohFilter(K10:K12,J10:J12))</f>
-        <v>4.4928813704964221E-6</v>
+        <v>1.3825225877012632E-7</v>
       </c>
       <c r="L9" s="93">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K9*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>0</v>
+        <v>6.7084243510846092E-4</v>
       </c>
       <c r="M9" s="103"/>
       <c r="N9" s="105">
         <f t="shared" si="2"/>
-        <v>-41831</v>
+        <v>-41862</v>
       </c>
       <c r="O9" s="105">
         <f t="shared" si="3"/>
-        <v>-41831</v>
+        <v>-41862</v>
       </c>
       <c r="P9" s="105" t="e">
         <f t="shared" si="6"/>
@@ -3178,18 +3178,18 @@
       </c>
       <c r="S9" s="116">
         <f t="shared" si="5"/>
-        <v>-41831</v>
+        <v>-41862</v>
       </c>
       <c r="T9" s="116">
         <v>1</v>
       </c>
       <c r="V9" s="76">
         <f t="array" ref="V9:V11">_xll.ohFilter(R6:R14,$J6:$J14)</f>
-        <v>6634.333333333333</v>
+        <v>2821.333333333333</v>
       </c>
       <c r="W9" s="77">
         <f t="array" ref="W9:W11">_xll.ohFilter(S6:S14,$J6:$J14)</f>
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="X9" s="78">
         <f t="array" ref="X9:X11">_xll.ohFilter(T6:T14,$J6:$J14)</f>
@@ -3197,35 +3197,35 @@
       </c>
       <c r="Z9" s="61">
         <f t="array" ref="Z9:Z11">MMULT(AD9:AF11,AB9:AB11)</f>
-        <v>1.180493316930795E-8</v>
+        <v>2.01944989814254E-8</v>
       </c>
       <c r="AB9" s="61">
         <f t="array" ref="AB9:AB11">_xll.ohFilter(I6:I14,$J6:$J14)</f>
-        <v>6.91903731056449E-4</v>
+        <v>6.8356164291531252E-4</v>
       </c>
       <c r="AD9" s="67">
         <f t="array" ref="AD9:AF11">MINVERSE(V9:X11)</f>
-        <v>5.1254149614805128E-4</v>
+        <v>5.1254149614805399E-4</v>
       </c>
       <c r="AE9" s="68">
-        <v>-9.9354197714853019E-4</v>
+        <v>-9.9354197714853496E-4</v>
       </c>
       <c r="AF9" s="69">
-        <v>4.8100048100047896E-4</v>
+        <v>4.8100048100048113E-4</v>
       </c>
       <c r="AH9" s="64">
         <f t="array" ref="AH9:AH11">MMULT(V9:X11,Z9:Z11)-AB9:AB11</f>
-        <v>7.589415207398531E-19</v>
+        <v>-7.589415207398531E-19</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="182" t="str">
         <f>_xll.qlIMMNextCode(SettlementDate-1,FALSE)</f>
-        <v>N4</v>
+        <v>Q4</v>
       </c>
       <c r="B10" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E10,F10,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c5#0004</v>
+        <v>obj_003c5#0000</v>
       </c>
       <c r="C10" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B10,OisEngine)</f>
@@ -3233,15 +3233,15 @@
       </c>
       <c r="D10" s="11" t="str">
         <f>Currency&amp;"FUT3M"&amp;A10&amp;QuoteSuffix</f>
-        <v>JPYFUT3MN4_Quote</v>
+        <v>JPYFUT3MQ4_Quote</v>
       </c>
       <c r="E10" s="48">
         <f>_xll.qlIMMdate(A10)</f>
-        <v>41836</v>
+        <v>41871</v>
       </c>
       <c r="F10" s="49">
         <f>_xll.qlCalendarAdvance(Calendar,E10,"3M","mf")</f>
-        <v>41928</v>
+        <v>41963</v>
       </c>
       <c r="G10" s="45" t="e">
         <f>1-_xll.qlQuoteValue($D10,AllTriggers)/100</f>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="H10" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B10,_xll.ohTrigger(C10,InterestRatesTrigger))</f>
-        <v>6.1470989784025945E-4</v>
+        <v>6.148877272201766E-4</v>
       </c>
       <c r="I10" s="16" t="e">
         <f t="shared" si="1"/>
@@ -3270,32 +3270,32 @@
       <c r="M10" s="5"/>
       <c r="N10" s="106">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O10" s="106">
         <f t="shared" si="3"/>
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="P10" s="106">
         <f t="shared" si="6"/>
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="R10" s="85">
         <f t="shared" si="4"/>
-        <v>3306.3333333333335</v>
+        <v>3730.3333333333335</v>
       </c>
       <c r="S10" s="85">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="T10" s="85">
         <v>1</v>
       </c>
       <c r="V10" s="79">
-        <v>12246.333333333332</v>
+        <v>6542.3333333333339</v>
       </c>
       <c r="W10" s="80">
-        <v>107.5</v>
+        <v>76.5</v>
       </c>
       <c r="X10" s="81">
         <v>1</v>
@@ -3304,25 +3304,25 @@
         <v>46</v>
       </c>
       <c r="Z10" s="62">
-        <v>-1.8926404614297418E-6</v>
+        <v>-2.1872243581936491E-6</v>
       </c>
       <c r="AA10" s="52" t="s">
         <v>47</v>
       </c>
       <c r="AB10" s="62">
-        <v>7.0042748192899811E-4</v>
+        <v>6.9199503070029023E-4</v>
       </c>
       <c r="AD10" s="70">
-        <v>-0.12709452053714301</v>
+        <v>-9.531694777596425E-2</v>
       </c>
       <c r="AE10" s="71">
-        <v>0.21559860904123107</v>
+        <v>0.15399900645802295</v>
       </c>
       <c r="AF10" s="72">
-        <v>-8.8504088504088071E-2</v>
+        <v>-5.8682058682058717E-2</v>
       </c>
       <c r="AH10" s="65">
-        <v>7.589415207398531E-19</v>
+        <v>-8.6736173798840355E-19</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -3332,7 +3332,7 @@
       </c>
       <c r="B11" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E11,F11,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c6#0004</v>
+        <v>obj_003c6#0000</v>
       </c>
       <c r="C11" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B11,OisEngine)</f>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="H11" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B11,_xll.ohTrigger(C11,InterestRatesTrigger))</f>
-        <v>5.9503417092060962E-4</v>
+        <v>5.9988489929606488E-4</v>
       </c>
       <c r="I11" s="16" t="e">
         <f t="shared" si="1"/>
@@ -3377,53 +3377,53 @@
       <c r="M11" s="5"/>
       <c r="N11" s="106">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="O11" s="106">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="P11" s="106">
         <f t="shared" si="6"/>
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="R11" s="85">
         <f t="shared" si="4"/>
-        <v>13572.333333333332</v>
+        <v>7496.3333333333339</v>
       </c>
       <c r="S11" s="85">
         <f t="shared" si="5"/>
-        <v>113.5</v>
+        <v>82.5</v>
       </c>
       <c r="T11" s="85">
         <v>1</v>
       </c>
       <c r="V11" s="82">
-        <v>20305.333333333336</v>
+        <v>12586.333333333334</v>
       </c>
       <c r="W11" s="83">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="X11" s="84">
         <v>1</v>
       </c>
       <c r="Z11" s="63">
-        <v>7.593191849636278E-4</v>
+        <v>7.271985502659581E-4</v>
       </c>
       <c r="AB11" s="63">
-        <v>7.3405262334398441E-4</v>
+        <v>7.4296579090273149E-4</v>
       </c>
       <c r="AD11" s="73">
-        <v>7.3859069487484561</v>
+        <v>3.9385291898953123</v>
       </c>
       <c r="AE11" s="74">
-        <v>-10.009604239112393</v>
+        <v>-4.280841198873989</v>
       </c>
       <c r="AF11" s="75">
-        <v>3.6236972903639377</v>
+        <v>1.3423120089786766</v>
       </c>
       <c r="AH11" s="66">
-        <v>6.5052130349130266E-19</v>
+        <v>-5.4210108624275222E-19</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B12" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E12,F12,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bb#0004</v>
+        <v>obj_003c0#0000</v>
       </c>
       <c r="C12" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B12,OisEngine)</f>
@@ -3444,11 +3444,11 @@
       </c>
       <c r="E12" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A12&amp;"M","mf")</f>
-        <v>41862</v>
+        <v>41893</v>
       </c>
       <c r="F12" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E12)</f>
-        <v>41954</v>
+        <v>41984</v>
       </c>
       <c r="G12" s="45">
         <f>_xll.qlQuoteValue(D12,AllTriggers)</f>
@@ -3456,11 +3456,11 @@
       </c>
       <c r="H12" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B12,_xll.ohTrigger(C12,InterestRatesTrigger))</f>
-        <v>6.0809626894355094E-4</v>
+        <v>6.0800496929970971E-4</v>
       </c>
       <c r="I12" s="16">
         <f>G12-H12</f>
-        <v>6.91903731056449E-4</v>
+        <v>6.9199503070029023E-4</v>
       </c>
       <c r="J12" s="1" t="b">
         <f>AND(NOT(ISERROR(I12)),E12&lt;&gt;$E$11,E12&lt;&gt;$E$10)</f>
@@ -3468,11 +3468,11 @@
       </c>
       <c r="K12" s="15">
         <f>(I12-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P12-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>4.4928813704964221E-6</v>
+        <v>1.3825225877012632E-7</v>
       </c>
       <c r="L12" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K12*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>0</v>
+        <v>6.7084243510846092E-4</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="106">
@@ -3481,19 +3481,19 @@
       </c>
       <c r="O12" s="106">
         <f t="shared" si="3"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P12" s="106">
         <f t="shared" si="6"/>
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R12" s="85">
         <f t="shared" si="4"/>
-        <v>6634.333333333333</v>
+        <v>6542.3333333333339</v>
       </c>
       <c r="S12" s="85">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>76.5</v>
       </c>
       <c r="T12" s="85">
         <v>1</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="B13" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E13,F13,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bd#0004</v>
+        <v>obj_003bb#0000</v>
       </c>
       <c r="C13" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B13,OisEngine)</f>
@@ -3520,11 +3520,11 @@
       </c>
       <c r="E13" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A13&amp;"M","mf")</f>
-        <v>41893</v>
+        <v>41925</v>
       </c>
       <c r="F13" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E13)</f>
-        <v>41984</v>
+        <v>42017</v>
       </c>
       <c r="G13" s="45">
         <f>_xll.qlQuoteValue(D13,AllTriggers)</f>
@@ -3532,11 +3532,11 @@
       </c>
       <c r="H13" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B13,_xll.ohTrigger(C13,InterestRatesTrigger))</f>
-        <v>5.9957251807100183E-4</v>
+        <v>5.5703420909726845E-4</v>
       </c>
       <c r="I13" s="16">
         <f>G13-H13</f>
-        <v>7.0042748192899811E-4</v>
+        <v>7.4296579090273149E-4</v>
       </c>
       <c r="J13" s="1" t="b">
         <f>AND(NOT(ISERROR(I13)),E13&lt;&gt;$E$11,E13&lt;&gt;$E$10)</f>
@@ -3544,32 +3544,32 @@
       </c>
       <c r="K13" s="15">
         <f>(I13-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P13-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>3.2578022415302239E-6</v>
+        <v>4.7146149196364257E-7</v>
       </c>
       <c r="L13" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K13*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>0</v>
+        <v>6.4018718565465741E-4</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="106">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O13" s="106">
         <f t="shared" si="3"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P13" s="106">
         <f t="shared" si="6"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="R13" s="85">
         <f t="shared" si="4"/>
-        <v>12246.333333333332</v>
+        <v>12586.333333333334</v>
       </c>
       <c r="S13" s="85">
         <f t="shared" si="5"/>
-        <v>107.5</v>
+        <v>109</v>
       </c>
       <c r="T13" s="85">
         <v>1</v>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="B14" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E14,F14,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b8#0004</v>
+        <v>obj_003b6#0000</v>
       </c>
       <c r="C14" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B14,OisEngine)</f>
@@ -3596,11 +3596,11 @@
       </c>
       <c r="E14" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A14&amp;"M","mf")</f>
-        <v>41925</v>
+        <v>41954</v>
       </c>
       <c r="F14" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$8,E14)</f>
-        <v>42017</v>
+        <v>42047</v>
       </c>
       <c r="G14" s="45">
         <f>_xll.qlQuoteValue(D14,AllTriggers)</f>
@@ -3608,11 +3608,11 @@
       </c>
       <c r="H14" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B14,_xll.ohTrigger(C14,InterestRatesTrigger))</f>
-        <v>5.6594737665601553E-4</v>
+        <v>5.672990535697843E-4</v>
       </c>
       <c r="I14" s="16">
         <f>G14-H14</f>
-        <v>7.3405262334398441E-4</v>
+        <v>7.3270094643021564E-4</v>
       </c>
       <c r="J14" s="1" t="b">
         <f>AND(NOT(ISERROR(I14)),E14&lt;&gt;$E$11,E14&lt;&gt;$E$10)</f>
@@ -3620,32 +3620,32 @@
       </c>
       <c r="K14" s="15">
         <f>(I14-_xll.ohFilter($I$6:$I$9,$J$6:$J$9))/(P14-_xll.ohFilter($P$6:$P$9,$J$6:$J$9))</f>
-        <v>2.6216165119428013E-6</v>
+        <v>2.6561785683731417E-7</v>
       </c>
       <c r="L14" s="15">
         <f>_xll.ohFilter($I$6:$I$9,$J$6:$J$9)-K14*_xll.ohFilter($P$6:$P$9,$J$6:$J$9)</f>
-        <v>0</v>
+        <v>6.5912480008627965E-4</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="106">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O14" s="106">
         <f t="shared" si="3"/>
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P14" s="106">
         <f t="shared" si="6"/>
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="R14" s="85">
         <f t="shared" si="4"/>
-        <v>20305.333333333336</v>
+        <v>19903</v>
       </c>
       <c r="S14" s="85">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>138.5</v>
       </c>
       <c r="T14" s="85">
         <v>1</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="B15" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E15,F15,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bc#0004</v>
+        <v>obj_003ba#0000</v>
       </c>
       <c r="C15" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B15,OisEngine)</f>
@@ -3672,23 +3672,23 @@
       </c>
       <c r="E15" s="97">
         <f>SettlementDate</f>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F15" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,E15,A16,"mf")</f>
-        <v>42016</v>
+        <v>42046</v>
       </c>
       <c r="G15" s="99">
         <f>_xll.qlQuoteValue($D15,AllTriggers)</f>
-        <v>1.7857000000000001E-3</v>
+        <v>1.7786000000000002E-3</v>
       </c>
       <c r="H15" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B15,_xll.ohTrigger(C15,InterestRatesTrigger))</f>
-        <v>5.9178082191784073E-4</v>
+        <v>5.9178082245131699E-4</v>
       </c>
       <c r="I15" s="101">
         <f t="shared" si="1"/>
-        <v>1.1939191780821594E-3</v>
+        <v>1.1868191775486832E-3</v>
       </c>
       <c r="J15" s="102" t="b">
         <v>0</v>
@@ -3702,20 +3702,20 @@
       </c>
       <c r="O15" s="105">
         <f t="shared" si="3"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P15" s="105">
         <f t="shared" ref="P15:P27" si="7">(O15^2-N15^2)/(O15-N15)</f>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="102"/>
       <c r="R15" s="116">
         <f t="shared" ref="R15:R27" si="8">(O15^3-N15^3)/3/(O15-N15)</f>
-        <v>11408.333333333332</v>
+        <v>11285.333333333332</v>
       </c>
       <c r="S15" s="116">
         <f t="shared" ref="S15:S27" si="9">(O15+N15)/2</f>
-        <v>92.5</v>
+        <v>92</v>
       </c>
       <c r="T15" s="116">
         <v>1</v>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B16" s="50" t="str">
         <f>_xll.qlMakeDatedOIS(,E16,F16,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0037d#0005</v>
+        <v>obj_0037d#0003</v>
       </c>
       <c r="C16" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B16,OisEngine)</f>
@@ -3740,51 +3740,51 @@
       </c>
       <c r="E16" s="90">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D16),_xll.qlInterestRateIndexFixingDays(A17)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41822</v>
+        <v>41862</v>
       </c>
       <c r="F16" s="91">
         <f>_xll.qlInterestRateIndexMaturity(A17,E16)</f>
-        <v>42009</v>
+        <v>42047</v>
       </c>
       <c r="G16" s="92">
         <f>_xll.qlQuoteValue(D16,AllTriggers)</f>
-        <v>1.7857000000000001E-3</v>
-      </c>
-      <c r="H16" s="93" t="e">
+        <v>1.7786000000000002E-3</v>
+      </c>
+      <c r="H16" s="93">
         <f>_xll.qlOvernightIndexedSwapFairRate(B16,_xll.ohTrigger(C16,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I16" s="94" t="e">
+        <v>5.9178082245131699E-4</v>
+      </c>
+      <c r="I16" s="94">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>1.1868191775486832E-3</v>
       </c>
       <c r="J16" s="102" t="b">
         <f>AND(NOT(ISERROR(I16)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="103"/>
       <c r="L16" s="103"/>
       <c r="M16" s="103"/>
       <c r="N16" s="105">
         <f t="shared" si="2"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="O16" s="105">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="P16" s="105">
         <f t="shared" si="7"/>
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="102"/>
       <c r="R16" s="116">
         <f t="shared" si="8"/>
-        <v>10054.333333333332</v>
+        <v>11408.333333333332</v>
       </c>
       <c r="S16" s="116">
         <f t="shared" si="9"/>
-        <v>84.5</v>
+        <v>92.5</v>
       </c>
       <c r="T16" s="116">
         <v>1</v>
@@ -3815,11 +3815,11 @@
       <c r="M17" s="103"/>
       <c r="N17" s="105">
         <f t="shared" si="2"/>
-        <v>-41831</v>
+        <v>-41862</v>
       </c>
       <c r="O17" s="105">
         <f t="shared" si="3"/>
-        <v>-41831</v>
+        <v>-41862</v>
       </c>
       <c r="P17" s="105" t="e">
         <f t="shared" si="7"/>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="S17" s="116">
         <f t="shared" si="9"/>
-        <v>-41831</v>
+        <v>-41862</v>
       </c>
       <c r="T17" s="116">
         <v>1</v>
@@ -3863,20 +3863,20 @@
       </c>
       <c r="K18" s="93">
         <f>AVERAGE(_xll.ohFilter(K19:K21,J19:J21))</f>
-        <v>3.833961433432469E-6</v>
+        <v>-2.1007247588197526E-7</v>
       </c>
       <c r="L18" s="93">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K18*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.2256825855868486E-3</v>
       </c>
       <c r="M18" s="103"/>
       <c r="N18" s="105">
         <f t="shared" si="2"/>
-        <v>-41831</v>
+        <v>-41862</v>
       </c>
       <c r="O18" s="105">
         <f t="shared" si="3"/>
-        <v>-41831</v>
+        <v>-41862</v>
       </c>
       <c r="P18" s="105" t="e">
         <f t="shared" si="7"/>
@@ -3889,18 +3889,18 @@
       </c>
       <c r="S18" s="116">
         <f t="shared" si="9"/>
-        <v>-41831</v>
+        <v>-41862</v>
       </c>
       <c r="T18" s="116">
         <v>1</v>
       </c>
       <c r="V18" s="76">
         <f t="array" ref="V18:V20">_xll.ohFilter(R15:R24,$J15:$J24)</f>
-        <v>18104.333333333332</v>
+        <v>11408.333333333332</v>
       </c>
       <c r="W18" s="77">
         <f t="array" ref="W18:W20">_xll.ohFilter(S15:S24,$J15:$J24)</f>
-        <v>123.5</v>
+        <v>92.5</v>
       </c>
       <c r="X18" s="78">
         <f t="array" ref="X18:X20">_xll.ohFilter(T15:T24,$J15:$J24)</f>
@@ -3908,25 +3908,25 @@
       </c>
       <c r="Z18" s="61">
         <f t="array" ref="Z18:Z20">MMULT(AD18:AF20,AB18:AB20)</f>
-        <v>1.7521251948597226E-8</v>
+        <v>1.616818664150914E-8</v>
       </c>
       <c r="AB18" s="61">
         <f t="array" ref="AB18:AB20">_xll.ohFilter(I15:I24,$J15:$J24)</f>
-        <v>1.1756365155780428E-3</v>
+        <v>1.1868191775486832E-3</v>
       </c>
       <c r="AD18" s="67">
         <f t="array" ref="AD18:AF20">MINVERSE(V18:X20)</f>
-        <v>5.1746648409387583E-4</v>
+        <v>5.17466484093878E-4</v>
       </c>
       <c r="AE18" s="68">
-        <v>-9.7920580836225748E-4</v>
+        <v>-9.7920580836226095E-4</v>
       </c>
       <c r="AF18" s="69">
-        <v>4.6173932426838164E-4</v>
+        <v>4.6173932426838316E-4</v>
       </c>
       <c r="AH18" s="64">
         <f t="array" ref="AH18:AH20">MMULT(V18:X20,Z18:Z20)-AB18:AB20</f>
-        <v>-6.0715321659188248E-18</v>
+        <v>4.1199682554449168E-18</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="B19" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E19,F19,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c1#0004</v>
+        <v>obj_003b7#0000</v>
       </c>
       <c r="C19" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B19,OisEngine)</f>
@@ -3947,11 +3947,11 @@
       </c>
       <c r="E19" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A19&amp;"M","mf")</f>
-        <v>41862</v>
+        <v>41893</v>
       </c>
       <c r="F19" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E19)</f>
-        <v>42047</v>
+        <v>42074</v>
       </c>
       <c r="G19" s="27">
         <f>_xll.qlQuoteValue(D19,AllTriggers)</f>
@@ -3959,11 +3959,11 @@
       </c>
       <c r="H19" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B19,_xll.ohTrigger(C19,InterestRatesTrigger))</f>
-        <v>5.7436348442195713E-4</v>
+        <v>5.8713903821800079E-4</v>
       </c>
       <c r="I19" s="16">
         <f t="shared" ref="I19:I24" si="11">G19-H19</f>
-        <v>1.1756365155780428E-3</v>
+        <v>1.162860961781999E-3</v>
       </c>
       <c r="J19" s="1" t="b">
         <f t="shared" ref="J19:J24" si="12">NOT(ISERROR(I19))</f>
@@ -3971,11 +3971,11 @@
       </c>
       <c r="K19" s="15">
         <f>(I19-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P19-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>4.7596620063888372E-6</v>
+        <v>-4.1307268563248573E-7</v>
       </c>
       <c r="L19" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K19*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.263237624390693E-3</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="106">
@@ -3984,28 +3984,28 @@
       </c>
       <c r="O19" s="106">
         <f t="shared" si="3"/>
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P19" s="106">
         <f t="shared" si="7"/>
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="R19" s="85">
         <f t="shared" si="8"/>
-        <v>18104.333333333332</v>
+        <v>17492.333333333336</v>
       </c>
       <c r="S19" s="85">
         <f t="shared" si="9"/>
-        <v>123.5</v>
+        <v>121.5</v>
       </c>
       <c r="T19" s="85">
         <v>1</v>
       </c>
       <c r="V19" s="79">
-        <v>25986.333333333332</v>
+        <v>17492.333333333336</v>
       </c>
       <c r="W19" s="80">
-        <v>152.5</v>
+        <v>121.5</v>
       </c>
       <c r="X19" s="81">
         <v>1</v>
@@ -4014,25 +4014,25 @@
         <v>46</v>
       </c>
       <c r="Z19" s="62">
-        <v>-6.2634170837818227E-6</v>
+        <v>-4.2181194239180805E-6</v>
       </c>
       <c r="AA19" s="52" t="s">
         <v>47</v>
       </c>
       <c r="AB19" s="62">
-        <v>1.1320999280072144E-3</v>
+        <v>1.162860961781999E-3</v>
       </c>
       <c r="AD19" s="70">
-        <v>-0.1751265802630321</v>
+        <v>-0.14304365824921228</v>
       </c>
       <c r="AE19" s="71">
-        <v>0.30062414419004535</v>
+        <v>0.23991338407158624</v>
       </c>
       <c r="AF19" s="72">
-        <v>-0.12549756392701328</v>
+        <v>-9.6869725822373978E-2</v>
       </c>
       <c r="AH19" s="65">
-        <v>-7.1557343384043293E-18</v>
+        <v>5.6378512969246231E-18</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B20" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E20,F20,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b6#0004</v>
+        <v>obj_003be#0000</v>
       </c>
       <c r="C20" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B20,OisEngine)</f>
@@ -4053,23 +4053,23 @@
       </c>
       <c r="E20" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A20&amp;"M","mf")</f>
-        <v>41893</v>
+        <v>41925</v>
       </c>
       <c r="F20" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E20)</f>
-        <v>42074</v>
+        <v>42107</v>
       </c>
       <c r="G20" s="27">
         <f>_xll.qlQuoteValue(D20,AllTriggers)</f>
-        <v>1.6999999999999999E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="H20" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B20,_xll.ohTrigger(C20,InterestRatesTrigger))</f>
-        <v>5.6790007199278552E-4</v>
+        <v>5.7897293070802245E-4</v>
       </c>
       <c r="I20" s="16">
         <f t="shared" si="11"/>
-        <v>1.1320999280072144E-3</v>
+        <v>1.1710270692919774E-3</v>
       </c>
       <c r="J20" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4077,62 +4077,62 @@
       </c>
       <c r="K20" s="15">
         <f>(I20-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P20-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>3.7118030426466046E-6</v>
+        <v>-1.2839112403825881E-7</v>
       </c>
       <c r="L20" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K20*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.2105715354957611E-3</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="106">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="106">
         <f t="shared" si="3"/>
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P20" s="106">
         <f t="shared" si="7"/>
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="R20" s="85">
         <f t="shared" si="8"/>
-        <v>25986.333333333332</v>
+        <v>26476.333333333336</v>
       </c>
       <c r="S20" s="85">
         <f t="shared" si="9"/>
-        <v>152.5</v>
+        <v>154</v>
       </c>
       <c r="T20" s="85">
         <v>1</v>
       </c>
       <c r="V20" s="82">
-        <v>36985.333333333336</v>
+        <v>26476.333333333336</v>
       </c>
       <c r="W20" s="83">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="X20" s="84">
         <v>1</v>
       </c>
       <c r="Z20" s="63">
-        <v>1.6319579397303715E-3</v>
+        <v>1.3925431616592264E-3</v>
       </c>
       <c r="AB20" s="63">
-        <v>1.1212551229669273E-3</v>
+        <v>1.1710270692919774E-3</v>
       </c>
       <c r="AD20" s="73">
-        <v>13.259746945620904</v>
+        <v>8.3281082486811471</v>
       </c>
       <c r="AE20" s="74">
-        <v>-19.399213450944174</v>
+        <v>-11.020881762888937</v>
       </c>
       <c r="AF20" s="75">
-        <v>7.1394665053232691</v>
+        <v>3.6927735142077904</v>
       </c>
       <c r="AH20" s="66">
-        <v>-8.2399365108898337E-18</v>
+        <v>7.8062556418956319E-18</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B21" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E21,F21,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003bf#0004</v>
+        <v>obj_003bf#0000</v>
       </c>
       <c r="C21" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B21,OisEngine)</f>
@@ -4153,23 +4153,23 @@
       </c>
       <c r="E21" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A21&amp;"M","mf")</f>
-        <v>41925</v>
+        <v>41954</v>
       </c>
       <c r="F21" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E21)</f>
-        <v>42107</v>
+        <v>42135</v>
       </c>
       <c r="G21" s="27">
         <f>_xll.qlQuoteValue(D21,AllTriggers)</f>
-        <v>1.6999999999999999E-3</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="H21" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B21,_xll.ohTrigger(C21,InterestRatesTrigger))</f>
-        <v>5.7874487703307264E-4</v>
+        <v>5.7915647368684913E-4</v>
       </c>
       <c r="I21" s="16">
         <f t="shared" si="11"/>
-        <v>1.1212551229669273E-3</v>
+        <v>1.1708435263131506E-3</v>
       </c>
       <c r="J21" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4177,32 +4177,32 @@
       </c>
       <c r="K21" s="15">
         <f>(I21-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P21-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>3.0304192512619656E-6</v>
+        <v>-8.8753617975181213E-8</v>
       </c>
       <c r="L21" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K21*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.2032385968740917E-3</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="106">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O21" s="106">
         <f t="shared" si="3"/>
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P21" s="106">
         <f t="shared" si="7"/>
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="R21" s="85">
         <f t="shared" si="8"/>
-        <v>36985.333333333336</v>
+        <v>36036.333333333328</v>
       </c>
       <c r="S21" s="85">
         <f t="shared" si="9"/>
-        <v>185</v>
+        <v>182.5</v>
       </c>
       <c r="T21" s="85">
         <v>1</v>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="B22" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E22,F22,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c3#0004</v>
+        <v>obj_003c3#0000</v>
       </c>
       <c r="C22" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B22,OisEngine)</f>
@@ -4230,11 +4230,11 @@
       </c>
       <c r="E22" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A22&amp;"M","mf")</f>
-        <v>41954</v>
+        <v>41984</v>
       </c>
       <c r="F22" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E22)</f>
-        <v>42135</v>
+        <v>42166</v>
       </c>
       <c r="G22" s="27">
         <f>_xll.qlQuoteValue(D22,AllTriggers)</f>
@@ -4242,11 +4242,11 @@
       </c>
       <c r="H22" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B22,_xll.ohTrigger(C22,InterestRatesTrigger))</f>
-        <v>5.7741973150164552E-4</v>
+        <v>5.627636131073935E-4</v>
       </c>
       <c r="I22" s="16">
         <f t="shared" si="11"/>
-        <v>1.1225802684983544E-3</v>
+        <v>1.1372363868926063E-3</v>
       </c>
       <c r="J22" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4254,16 +4254,16 @@
       </c>
       <c r="K22" s="15">
         <f>(I22-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P22-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>2.6289936030406427E-6</v>
+        <v>-2.0573772056463447E-7</v>
       </c>
       <c r="L22" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K22*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.2248806558531405E-3</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="106">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O22" s="106">
         <f t="shared" si="3"/>
@@ -4271,15 +4271,15 @@
       </c>
       <c r="P22" s="106">
         <f t="shared" si="7"/>
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R22" s="85">
         <f t="shared" si="8"/>
-        <v>48312.333333333336</v>
+        <v>48129.333333333328</v>
       </c>
       <c r="S22" s="85">
         <f t="shared" si="9"/>
-        <v>213.5</v>
+        <v>213</v>
       </c>
       <c r="T22" s="85">
         <v>1</v>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="B23" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E23,F23,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c2#0004</v>
+        <v>obj_003b8#0000</v>
       </c>
       <c r="C23" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B23,OisEngine)</f>
@@ -4307,23 +4307,23 @@
       </c>
       <c r="E23" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A23&amp;"M","mf")</f>
-        <v>41984</v>
+        <v>42016</v>
       </c>
       <c r="F23" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E23)</f>
-        <v>42166</v>
+        <v>42198</v>
       </c>
       <c r="G23" s="27">
         <f>_xll.qlQuoteValue(D23,AllTriggers)</f>
-        <v>1.65E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="H23" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B23,_xll.ohTrigger(C23,InterestRatesTrigger))</f>
-        <v>5.7274148229014867E-4</v>
+        <v>5.6073591423823604E-4</v>
       </c>
       <c r="I23" s="16">
         <f t="shared" si="11"/>
-        <v>1.0772585177098513E-3</v>
+        <v>1.1392640857617639E-3</v>
       </c>
       <c r="J23" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4331,32 +4331,32 @@
       </c>
       <c r="K23" s="15">
         <f>(I23-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P23-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>2.2074969625201873E-6</v>
+        <v>-1.5591833372760437E-7</v>
       </c>
       <c r="L23" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K23*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.2156640692882899E-3</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="106">
         <f t="shared" si="2"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O23" s="106">
         <f t="shared" si="3"/>
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P23" s="106">
         <f t="shared" si="7"/>
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="R23" s="85">
         <f t="shared" si="8"/>
-        <v>62296.333333333328</v>
+        <v>62785.333333333328</v>
       </c>
       <c r="S23" s="85">
         <f t="shared" si="9"/>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="T23" s="85">
         <v>1</v>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="B24" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E24,F24,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003c0#0004</v>
+        <v>obj_003c2#0000</v>
       </c>
       <c r="C24" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B24,OisEngine)</f>
@@ -4384,23 +4384,23 @@
       </c>
       <c r="E24" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,A24&amp;"M","mf")</f>
-        <v>42016</v>
+        <v>42046</v>
       </c>
       <c r="F24" s="49">
         <f>_xll.qlInterestRateIndexMaturity($A$17,E24)</f>
-        <v>42198</v>
+        <v>42227</v>
       </c>
       <c r="G24" s="27">
         <f>_xll.qlQuoteValue(D24,AllTriggers)</f>
-        <v>1.65E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="H24" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B24,_xll.ohTrigger(C24,InterestRatesTrigger))</f>
-        <v>5.9159993821038216E-4</v>
+        <v>5.4161611126435361E-4</v>
       </c>
       <c r="I24" s="16">
         <f t="shared" si="11"/>
-        <v>1.0584000617896178E-3</v>
+        <v>1.1583838887356463E-3</v>
       </c>
       <c r="J24" s="1" t="b">
         <f t="shared" si="12"/>
@@ -4408,32 +4408,32 @@
       </c>
       <c r="K24" s="15">
         <f>(I24-_xll.ohFilter($I$15:$I$18,$J$15:$J$18))/(P24-_xll.ohFilter($P$15:$P$18,$J$15:$J$18))</f>
-        <v>1.9173914162855397E-6</v>
+        <v>-7.8118925310540945E-8</v>
       </c>
       <c r="L24" s="15">
         <f>_xll.ohFilter($I$15:$I$18,$J$15:$J$18)-K24*_xll.ohFilter($P$15:$P$18,$J$15:$J$18)</f>
-        <v>0</v>
+        <v>1.2012711787311333E-3</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="106">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O24" s="106">
         <f t="shared" si="3"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P24" s="106">
         <f t="shared" si="7"/>
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="R24" s="85">
         <f t="shared" si="8"/>
-        <v>78936.333333333328</v>
+        <v>78080.333333333343</v>
       </c>
       <c r="S24" s="85">
         <f t="shared" si="9"/>
-        <v>276</v>
+        <v>274.5</v>
       </c>
       <c r="T24" s="85">
         <v>1</v>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="B25" s="28" t="str">
         <f>_xll.qlMakeDatedOIS(,E25,F25,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b9#0004</v>
+        <v>obj_003b9#0000</v>
       </c>
       <c r="C25" s="8" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B25,OisEngine)</f>
@@ -4457,23 +4457,23 @@
       </c>
       <c r="E25" s="97">
         <f>SettlementDate</f>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F25" s="98">
         <f>_xll.qlCalendarAdvance(Calendar,E25,A26,"mf")</f>
-        <v>42198</v>
+        <v>42227</v>
       </c>
       <c r="G25" s="99">
         <f>_xll.qlQuoteValue($D25,AllTriggers)</f>
-        <v>3.2714000000000003E-3</v>
+        <v>3.3686000000000007E-3</v>
       </c>
       <c r="H25" s="100">
         <f>_xll.qlOvernightIndexedSwapFairRate(B25,_xll.ohTrigger(C25,InterestRatesTrigger))</f>
-        <v>5.9178082191767799E-4</v>
+        <v>5.6712328794147481E-4</v>
       </c>
       <c r="I25" s="101">
         <f t="shared" si="1"/>
-        <v>2.6796191780823222E-3</v>
+        <v>2.8014767120585257E-3</v>
       </c>
       <c r="J25" s="102" t="b">
         <v>0</v>
@@ -4487,20 +4487,20 @@
       </c>
       <c r="O25" s="105">
         <f t="shared" si="3"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P25" s="105">
         <f t="shared" si="7"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="Q25" s="102"/>
       <c r="R25" s="116">
         <f t="shared" si="8"/>
-        <v>44896.333333333336</v>
+        <v>44408.333333333328</v>
       </c>
       <c r="S25" s="116">
         <f t="shared" si="9"/>
-        <v>183.5</v>
+        <v>182.5</v>
       </c>
       <c r="T25" s="116">
         <v>1</v>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="B26" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E26,F26,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_0037e#0005</v>
+        <v>obj_0037e#0003</v>
       </c>
       <c r="C26" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B26,OisEngine)</f>
@@ -4525,27 +4525,27 @@
       </c>
       <c r="E26" s="90">
         <f>_xll.qlCalendarAdvance(Calendar,_xll.qlLastFixingQuoteReferenceDate(D26),_xll.qlInterestRateIndexFixingDays(A27)&amp;"D","f",,LastFixingsTrigger)</f>
-        <v>41822</v>
+        <v>41862</v>
       </c>
       <c r="F26" s="91">
         <f>_xll.qlInterestRateIndexMaturity(A27,E26)</f>
-        <v>42187</v>
+        <v>42227</v>
       </c>
       <c r="G26" s="92">
         <f>_xll.qlQuoteValue(D26,AllTriggers)</f>
-        <v>3.2714000000000003E-3</v>
-      </c>
-      <c r="H26" s="93" t="e">
+        <v>3.3686000000000007E-3</v>
+      </c>
+      <c r="H26" s="93">
         <f>_xll.qlOvernightIndexedSwapFairRate(B26,_xll.ohTrigger(C26,InterestRatesTrigger))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I26" s="94" t="e">
+        <v>5.6712328794147481E-4</v>
+      </c>
+      <c r="I26" s="94">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>2.8014767120585257E-3</v>
       </c>
       <c r="J26" s="102" t="b">
         <f>NOT(ISERROR(I26))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="104" t="e">
         <f>K27</f>
@@ -4558,24 +4558,24 @@
       <c r="M26" s="103"/>
       <c r="N26" s="105">
         <f t="shared" si="2"/>
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="O26" s="105">
         <f t="shared" si="3"/>
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="P26" s="105">
         <f t="shared" si="7"/>
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="102"/>
       <c r="R26" s="116">
         <f t="shared" si="8"/>
-        <v>41204.333333333328</v>
+        <v>44408.333333333328</v>
       </c>
       <c r="S26" s="116">
         <f t="shared" si="9"/>
-        <v>173.5</v>
+        <v>182.5</v>
       </c>
       <c r="T26" s="116">
         <v>1</v>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B27" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E27,F27,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ba#0004</v>
+        <v>obj_003bc#0000</v>
       </c>
       <c r="C27" s="12" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B27,OisEngine)</f>
@@ -4600,11 +4600,11 @@
       </c>
       <c r="E27" s="48">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,"12M","mf")</f>
-        <v>42198</v>
+        <v>42227</v>
       </c>
       <c r="F27" s="49">
         <f>_xll.qlInterestRateIndexMaturity(A27,E27)</f>
-        <v>42564</v>
+        <v>42593</v>
       </c>
       <c r="G27" s="27" t="e">
         <f>_xll.qlQuoteValue(D27,AllTriggers)</f>
@@ -4612,7 +4612,7 @@
       </c>
       <c r="H27" s="15">
         <f>_xll.qlOvernightIndexedSwapFairRate(B27,_xll.ohTrigger(C27,InterestRatesTrigger))</f>
-        <v>5.9201941546689054E-4</v>
+        <v>5.178626429241485E-4</v>
       </c>
       <c r="I27" s="16" t="e">
         <f t="shared" si="1"/>
@@ -4633,23 +4633,23 @@
       <c r="M27" s="5"/>
       <c r="N27" s="106">
         <f t="shared" si="2"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="O27" s="106">
         <f t="shared" si="3"/>
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="P27" s="106">
         <f t="shared" si="7"/>
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="R27" s="85">
         <f t="shared" si="8"/>
-        <v>313663</v>
+        <v>311467</v>
       </c>
       <c r="S27" s="85">
         <f t="shared" si="9"/>
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="T27" s="85">
         <v>1</v>
@@ -4721,11 +4721,11 @@
       </c>
       <c r="V30" s="111">
         <f>Z9</f>
-        <v>1.180493316930795E-8</v>
+        <v>2.01944989814254E-8</v>
       </c>
       <c r="W30" s="13">
         <f>Z18</f>
-        <v>1.7521251948597226E-8</v>
+        <v>1.616818664150914E-8</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="G31" s="37">
         <f>_xll.ohFilter(I2:I3,J2:J3)</f>
-        <v>0</v>
+        <v>2.8030411071094019E-4</v>
       </c>
       <c r="H31" s="38">
         <f>_xll.ohFilter(I6:I9,J6:J9)</f>
-        <v>0</v>
+        <v>6.8356164291531252E-4</v>
       </c>
       <c r="I31" s="38">
         <f>_xll.ohFilter(I15:I18,J15:J18)</f>
-        <v>0</v>
+        <v>1.1868191775486832E-3</v>
       </c>
       <c r="J31" s="39">
         <f>_xll.ohFilter(I25:I26,J25:J26)</f>
-        <v>0</v>
+        <v>2.8014767120585257E-3</v>
       </c>
       <c r="M31" s="52" t="s">
         <v>45</v>
@@ -4757,11 +4757,11 @@
       </c>
       <c r="O31" s="51">
         <f>K9</f>
-        <v>4.4928813704964221E-6</v>
+        <v>1.3825225877012632E-7</v>
       </c>
       <c r="P31" s="51">
         <f>AVERAGE(K19:K21)</f>
-        <v>3.833961433432469E-6</v>
+        <v>-2.1007247588197526E-7</v>
       </c>
       <c r="Q31" s="51" t="e">
         <f>K26</f>
@@ -4772,11 +4772,11 @@
       </c>
       <c r="V31" s="57">
         <f>Z10</f>
-        <v>-1.8926404614297418E-6</v>
+        <v>-2.1872243581936491E-6</v>
       </c>
       <c r="W31" s="16">
         <f>Z19</f>
-        <v>-6.2634170837818227E-6</v>
+        <v>-4.2181194239180805E-6</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
@@ -4785,19 +4785,19 @@
       </c>
       <c r="G32" s="37">
         <f>IF(G31&lt;H31,G31,H31)</f>
-        <v>0</v>
+        <v>2.8030411071094019E-4</v>
       </c>
       <c r="H32" s="38">
         <f>H31</f>
-        <v>0</v>
+        <v>6.8356164291531252E-4</v>
       </c>
       <c r="I32" s="38">
         <f>IF(I31&lt;H31,H31,I31)</f>
-        <v>0</v>
+        <v>1.1868191775486832E-3</v>
       </c>
       <c r="J32" s="39">
         <f>IF(J31&lt;I31,I31,J31)</f>
-        <v>0</v>
+        <v>2.8014767120585257E-3</v>
       </c>
       <c r="M32" s="52" t="s">
         <v>44</v>
@@ -4808,11 +4808,11 @@
       </c>
       <c r="O32" s="51">
         <f>L9</f>
-        <v>0</v>
+        <v>6.7084243510846092E-4</v>
       </c>
       <c r="P32" s="51">
         <f>L18</f>
-        <v>0</v>
+        <v>1.2256825855868486E-3</v>
       </c>
       <c r="Q32" s="51" t="e">
         <f>L26</f>
@@ -4823,11 +4823,11 @@
       </c>
       <c r="V32" s="57">
         <f>Z11</f>
-        <v>7.593191849636278E-4</v>
+        <v>7.271985502659581E-4</v>
       </c>
       <c r="W32" s="16">
         <f>Z20</f>
-        <v>1.6319579397303715E-3</v>
+        <v>1.3925431616592264E-3</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -4885,7 +4885,7 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="117" t="str">
         <f>_xll.qlMakeDatedOIS(,E34,F34,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b4#0004</v>
+        <v>obj_003ab#0000</v>
       </c>
       <c r="C34" s="7" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B34,OisEngine)</f>
@@ -4896,11 +4896,11 @@
       </c>
       <c r="E34" s="46">
         <f t="shared" ref="E34:E49" si="13">SettlementDate</f>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F34" s="22">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D34,"Following")</f>
-        <v>41834</v>
+        <v>41863</v>
       </c>
       <c r="G34" s="32" t="e">
         <f t="shared" ref="G34:J38" si="14">$L34+IF(G$30,G$32,N34)</f>
@@ -4908,11 +4908,11 @@
       </c>
       <c r="H34" s="32">
         <f t="shared" si="14"/>
-        <v>1.3918180089480055E-3</v>
+        <v>1.3587349389335413E-3</v>
       </c>
       <c r="I34" s="32">
         <f t="shared" si="14"/>
-        <v>2.2579177477375588E-3</v>
+        <v>2.023062760689834E-3</v>
       </c>
       <c r="J34" s="32" t="e">
         <f t="shared" si="14"/>
@@ -4920,11 +4920,11 @@
       </c>
       <c r="K34" s="118">
         <f>F34-$E$6</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34" s="2">
         <f>L35</f>
-        <v>6.3530236987701424E-4</v>
+        <v>6.3262326934701953E-4</v>
       </c>
       <c r="N34" s="56" t="e">
         <f>N$31*$K34+N$32</f>
@@ -4932,11 +4932,11 @@
       </c>
       <c r="O34" s="57">
         <f t="shared" ref="O34:P40" si="15">IF(O$30,V34,O$31*$K34+O$32)</f>
-        <v>7.5651563907099114E-4</v>
+        <v>7.2611166958652174E-4</v>
       </c>
       <c r="P34" s="57">
         <f t="shared" si="15"/>
-        <v>1.6226153778605445E-3</v>
+        <v>1.3904394913428146E-3</v>
       </c>
       <c r="Q34" s="16" t="e">
         <f t="shared" ref="Q34:Q49" si="16">Q$31*$K34+Q$32</f>
@@ -4947,17 +4947,17 @@
       </c>
       <c r="V34" s="57">
         <f t="shared" ref="V34:W40" si="17">$K34*$K34/3*V$30+$K34/2*V$31+V$32</f>
-        <v>7.5651563907099114E-4</v>
+        <v>7.2611166958652174E-4</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" si="17"/>
-        <v>1.6226153778605445E-3</v>
+        <v>1.3904394913428146E-3</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E35,F35,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a6#0004</v>
+        <v>obj_003a6#0000</v>
       </c>
       <c r="C35" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B35,OisEngine)</f>
@@ -4968,11 +4968,11 @@
       </c>
       <c r="E35" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F35" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D35,"Following")</f>
-        <v>41838</v>
+        <v>41869</v>
       </c>
       <c r="G35" s="32" t="e">
         <f t="shared" si="14"/>
@@ -4980,11 +4980,11 @@
       </c>
       <c r="H35" s="32">
         <f t="shared" si="14"/>
-        <v>1.3881901271340698E-3</v>
+        <v>1.3524963778426631E-3</v>
       </c>
       <c r="I35" s="32">
         <f t="shared" si="14"/>
-        <v>2.2456245302626431E-3</v>
+        <v>2.010667093404344E-3</v>
       </c>
       <c r="J35" s="32" t="e">
         <f t="shared" si="14"/>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="L35" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B35,_xll.ohTrigger(C35,InterestRatesTrigger))</f>
-        <v>6.3530236987701424E-4</v>
+        <v>6.3262326934701953E-4</v>
       </c>
       <c r="N35" s="56" t="e">
         <f>N$31*$K35+N$32</f>
@@ -5004,11 +5004,11 @@
       </c>
       <c r="O35" s="57">
         <f t="shared" si="15"/>
-        <v>7.5288775725705572E-4</v>
+        <v>7.1987310849564356E-4</v>
       </c>
       <c r="P35" s="57">
         <f t="shared" si="15"/>
-        <v>1.6103221603856288E-3</v>
+        <v>1.3780438240573244E-3</v>
       </c>
       <c r="Q35" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5019,17 +5019,17 @@
       </c>
       <c r="V35" s="57">
         <f t="shared" si="17"/>
-        <v>7.5288775725705572E-4</v>
+        <v>7.1987310849564356E-4</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" si="17"/>
-        <v>1.6103221603856288E-3</v>
+        <v>1.3780438240573244E-3</v>
       </c>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E36,F36,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b0#0004</v>
+        <v>obj_003ad#0000</v>
       </c>
       <c r="C36" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B36,OisEngine)</f>
@@ -5040,11 +5040,11 @@
       </c>
       <c r="E36" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F36" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D36,"Following")</f>
-        <v>41845</v>
+        <v>41877</v>
       </c>
       <c r="G36" s="32" t="e">
         <f t="shared" si="14"/>
@@ -5052,11 +5052,11 @@
       </c>
       <c r="H36" s="32">
         <f t="shared" si="14"/>
-        <v>1.383182720530005E-3</v>
+        <v>1.3468540532876462E-3</v>
       </c>
       <c r="I36" s="32">
         <f t="shared" si="14"/>
-        <v>2.2255995051005308E-3</v>
+        <v>1.9966649782624875E-3</v>
       </c>
       <c r="J36" s="32" t="e">
         <f t="shared" si="14"/>
@@ -5064,11 +5064,11 @@
       </c>
       <c r="K36" s="119">
         <f t="shared" si="18"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L36" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B36,_xll.ohTrigger(C36,InterestRatesTrigger))</f>
-        <v>6.363407631626572E-4</v>
+        <v>6.3454509828453354E-4</v>
       </c>
       <c r="N36" s="56" t="e">
         <f>N$31*$K36+N$32</f>
@@ -5076,11 +5076,11 @@
       </c>
       <c r="O36" s="57">
         <f t="shared" si="15"/>
-        <v>7.4684195736734777E-4</v>
+        <v>7.1230895500311265E-4</v>
       </c>
       <c r="P36" s="57">
         <f t="shared" si="15"/>
-        <v>1.5892587419378738E-3</v>
+        <v>1.362119879977954E-3</v>
       </c>
       <c r="Q36" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5091,17 +5091,17 @@
       </c>
       <c r="V36" s="57">
         <f t="shared" si="17"/>
-        <v>7.4684195736734777E-4</v>
+        <v>7.1230895500311265E-4</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" si="17"/>
-        <v>1.5892587419378738E-3</v>
+        <v>1.362119879977954E-3</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E37,F37,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003af#0004</v>
+        <v>obj_003aa#0000</v>
       </c>
       <c r="C37" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B37,OisEngine)</f>
@@ -5112,11 +5112,11 @@
       </c>
       <c r="E37" s="47">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F37" s="26">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D37,"Following")</f>
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="G37" s="35" t="e">
         <f t="shared" si="14"/>
@@ -5124,11 +5124,11 @@
       </c>
       <c r="H37" s="35">
         <f>$L37+IF(H$30,H$32,O37)</f>
-        <v>1.3790973656119376E-3</v>
+        <v>1.3437799305056927E-3</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="14"/>
-        <v>2.2066832647045401E-3</v>
+        <v>1.9872082757948868E-3</v>
       </c>
       <c r="J37" s="35" t="e">
         <f t="shared" si="14"/>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="L37" s="4">
         <f>_xll.qlOvernightIndexedSwapFairRate(B37,_xll.ohTrigger(C37,InterestRatesTrigger))</f>
-        <v>6.3791558031743383E-4</v>
+        <v>6.365786446504984E-4</v>
       </c>
       <c r="N37" s="86" t="e">
         <f>N$31*$K37+N$32</f>
@@ -5148,11 +5148,11 @@
       </c>
       <c r="O37" s="87">
         <f t="shared" si="15"/>
-        <v>7.4118178529450373E-4</v>
+        <v>7.072012858551943E-4</v>
       </c>
       <c r="P37" s="87">
         <f t="shared" si="15"/>
-        <v>1.5687676843871062E-3</v>
+        <v>1.3506296311443884E-3</v>
       </c>
       <c r="Q37" s="14" t="e">
         <f t="shared" si="16"/>
@@ -5163,17 +5163,17 @@
       </c>
       <c r="V37" s="87">
         <f t="shared" si="17"/>
-        <v>7.4118178529450373E-4</v>
+        <v>7.072012858551943E-4</v>
       </c>
       <c r="W37" s="14">
         <f t="shared" si="17"/>
-        <v>1.5687676843871062E-3</v>
+        <v>1.3506296311443884E-3</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E38,F38,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b3#0004</v>
+        <v>obj_003a8#0000</v>
       </c>
       <c r="C38" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B38,OisEngine)</f>
@@ -5184,11 +5184,11 @@
       </c>
       <c r="E38" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F38" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D38,"mf",TRUE)</f>
-        <v>41862</v>
+        <v>41893</v>
       </c>
       <c r="G38" s="34" t="e">
         <f t="shared" si="14"/>
@@ -5196,11 +5196,11 @@
       </c>
       <c r="H38" s="34">
         <f t="shared" si="14"/>
-        <v>1.374860661811533E-3</v>
+        <v>1.3408614331767332E-3</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="14"/>
-        <v>2.1815835063807854E-3</v>
+        <v>1.9734374089983861E-3</v>
       </c>
       <c r="J38" s="34" t="e">
         <f t="shared" si="14"/>
@@ -5212,7 +5212,7 @@
       </c>
       <c r="L38" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B38,_xll.ohTrigger(C38,InterestRatesTrigger))</f>
-        <v>6.4109589040816468E-4</v>
+        <v>6.4109588928905998E-4</v>
       </c>
       <c r="N38" s="56" t="e">
         <f>N$31*$K38+N$32</f>
@@ -5220,11 +5220,11 @@
       </c>
       <c r="O38" s="57">
         <f t="shared" si="15"/>
-        <v>7.3376477140336841E-4</v>
+        <v>6.9976554388767316E-4</v>
       </c>
       <c r="P38" s="57">
         <f t="shared" si="15"/>
-        <v>1.5404876159726205E-3</v>
+        <v>1.3323415197093263E-3</v>
       </c>
       <c r="Q38" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5235,17 +5235,17 @@
       </c>
       <c r="V38" s="57">
         <f t="shared" si="17"/>
-        <v>7.3376477140336841E-4</v>
+        <v>6.9976554388767316E-4</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" si="17"/>
-        <v>1.5404876159726205E-3</v>
+        <v>1.3323415197093263E-3</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E39,F39,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b5#0004</v>
+        <v>obj_003b1#0000</v>
       </c>
       <c r="C39" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B39,OisEngine)</f>
@@ -5256,20 +5256,20 @@
       </c>
       <c r="E39" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F39" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D39,"mf",TRUE)</f>
-        <v>41893</v>
+        <v>41925</v>
       </c>
       <c r="G39" s="44"/>
       <c r="H39" s="32">
         <f t="shared" ref="H39:J40" si="19">$L39+IF(H$30,H$32,O39)</f>
-        <v>1.3568692754376559E-3</v>
+        <v>1.3261141986199397E-3</v>
       </c>
       <c r="I39" s="32">
         <f t="shared" si="19"/>
-        <v>2.1013384647073476E-3</v>
+        <v>1.9221588042171792E-3</v>
       </c>
       <c r="J39" s="32" t="e">
         <f t="shared" si="19"/>
@@ -5277,20 +5277,20 @@
       </c>
       <c r="K39" s="119">
         <f t="shared" si="18"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L39" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B39,_xll.ohTrigger(C39,InterestRatesTrigger))</f>
-        <v>6.4109589041074335E-4</v>
+        <v>6.4109589348465567E-4</v>
       </c>
       <c r="N39" s="44"/>
       <c r="O39" s="57">
         <f t="shared" si="15"/>
-        <v>7.1577338502691243E-4</v>
+        <v>6.8501830513528392E-4</v>
       </c>
       <c r="P39" s="57">
         <f t="shared" si="15"/>
-        <v>1.4602425742966042E-3</v>
+        <v>1.2810629107325234E-3</v>
       </c>
       <c r="Q39" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5301,17 +5301,17 @@
       </c>
       <c r="V39" s="57">
         <f t="shared" si="17"/>
-        <v>7.1577338502691243E-4</v>
+        <v>6.8501830513528392E-4</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" si="17"/>
-        <v>1.4602425742966042E-3</v>
+        <v>1.2810629107325234E-3</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E40,F40,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b1#0004</v>
+        <v>obj_003b0#0000</v>
       </c>
       <c r="C40" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B40,OisEngine)</f>
@@ -5322,20 +5322,20 @@
       </c>
       <c r="E40" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F40" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D40,"mf",TRUE)</f>
-        <v>41925</v>
+        <v>41954</v>
       </c>
       <c r="G40" s="42"/>
       <c r="H40" s="32">
         <f t="shared" si="19"/>
-        <v>1.3215729026017607E-3</v>
+        <v>1.2999999999999991E-3</v>
       </c>
       <c r="I40" s="32">
         <f t="shared" si="19"/>
-        <v>2.0056216203625564E-3</v>
+        <v>1.8605638691549264E-3</v>
       </c>
       <c r="J40" s="32" t="e">
         <f t="shared" si="19"/>
@@ -5343,20 +5343,20 @@
       </c>
       <c r="K40" s="119">
         <f t="shared" si="18"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L40" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B40,_xll.ohTrigger(C40,InterestRatesTrigger))</f>
-        <v>6.1643835616399583E-4</v>
+        <v>6.1643835708468742E-4</v>
       </c>
       <c r="N40" s="42"/>
       <c r="O40" s="57">
         <f t="shared" si="15"/>
-        <v>7.0513454643776499E-4</v>
+        <v>6.8356164291531176E-4</v>
       </c>
       <c r="P40" s="57">
         <f t="shared" si="15"/>
-        <v>1.3891832641985608E-3</v>
+        <v>1.2441255120702391E-3</v>
       </c>
       <c r="Q40" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5367,17 +5367,17 @@
       </c>
       <c r="V40" s="57">
         <f t="shared" si="17"/>
-        <v>7.0513454643776499E-4</v>
+        <v>6.8356164291531176E-4</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" si="17"/>
-        <v>1.3891832641985608E-3</v>
+        <v>1.2441255120702391E-3</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E41,F41,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a9#0004</v>
+        <v>obj_003b3#0000</v>
       </c>
       <c r="C41" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B41,OisEngine)</f>
@@ -5388,17 +5388,17 @@
       </c>
       <c r="E41" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F41" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D41,"mf",TRUE)</f>
-        <v>41954</v>
+        <v>41984</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="43"/>
       <c r="I41" s="32">
         <f t="shared" ref="I41:J43" si="20">$L41+IF(I$30,I$32,P41)</f>
-        <v>1.9515558188183488E-3</v>
+        <v>1.8318919942874156E-3</v>
       </c>
       <c r="J41" s="32" t="e">
         <f t="shared" si="20"/>
@@ -5406,17 +5406,17 @@
       </c>
       <c r="K41" s="119">
         <f t="shared" si="18"/>
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L41" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B41,_xll.ohTrigger(C41,InterestRatesTrigger))</f>
-        <v>6.1643835616378366E-4</v>
+        <v>6.1643835416311829E-4</v>
       </c>
       <c r="N41" s="36"/>
       <c r="O41" s="43"/>
       <c r="P41" s="57">
         <f>IF(P$30,W41,P$31*$K41+P$32)</f>
-        <v>1.3351174626545653E-3</v>
+        <v>1.2154536401242973E-3</v>
       </c>
       <c r="Q41" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5428,13 +5428,13 @@
       <c r="V41" s="57"/>
       <c r="W41" s="16">
         <f>$K41*$K41/3*W$30+$K41/2*W$31+W$32</f>
-        <v>1.3351174626545653E-3</v>
+        <v>1.2154536401242973E-3</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E42,F42,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ae#0004</v>
+        <v>obj_003a7#0000</v>
       </c>
       <c r="C42" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B42,OisEngine)</f>
@@ -5445,17 +5445,17 @@
       </c>
       <c r="E42" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F42" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D42,"mf",TRUE)</f>
-        <v>41984</v>
+        <v>42016</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="41"/>
       <c r="I42" s="32">
         <f t="shared" si="20"/>
-        <v>1.9059632179406166E-3</v>
+        <v>1.7873436933628591E-3</v>
       </c>
       <c r="J42" s="32" t="e">
         <f t="shared" si="20"/>
@@ -5463,17 +5463,17 @@
       </c>
       <c r="K42" s="119">
         <f t="shared" si="18"/>
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L42" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B42,_xll.ohTrigger(C42,InterestRatesTrigger))</f>
-        <v>6.1643835616465048E-4</v>
+        <v>5.9178082254864788E-4</v>
       </c>
       <c r="N42" s="36"/>
       <c r="O42" s="41"/>
       <c r="P42" s="57">
         <f>IF(P$30,W42,P$31*$K42+P$32)</f>
-        <v>1.2895248617759661E-3</v>
+        <v>1.1955628708142112E-3</v>
       </c>
       <c r="Q42" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5485,13 +5485,13 @@
       <c r="V42" s="57"/>
       <c r="W42" s="16">
         <f>$K42*$K42/3*W$30+$K42/2*W$31+W$32</f>
-        <v>1.2895248617759661E-3</v>
+        <v>1.1955628708142112E-3</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E43,F43,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a8#0004</v>
+        <v>obj_003b2#0000</v>
       </c>
       <c r="C43" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B43,OisEngine)</f>
@@ -5502,17 +5502,17 @@
       </c>
       <c r="E43" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F43" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D43,"mf",TRUE)</f>
-        <v>42016</v>
+        <v>42046</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="41"/>
       <c r="I43" s="32">
         <f t="shared" si="20"/>
-        <v>1.844260964045307E-3</v>
+        <v>1.7787203727550579E-3</v>
       </c>
       <c r="J43" s="32" t="e">
         <f t="shared" si="20"/>
@@ -5520,17 +5520,17 @@
       </c>
       <c r="K43" s="119">
         <f t="shared" si="18"/>
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L43" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B43,_xll.ohTrigger(C43,InterestRatesTrigger))</f>
-        <v>5.9178082191784073E-4</v>
+        <v>5.9178082245131699E-4</v>
       </c>
       <c r="N43" s="36"/>
       <c r="O43" s="41"/>
       <c r="P43" s="57">
         <f>IF(P$30,W43,P$31*$K43+P$32)</f>
-        <v>1.2524801421274663E-3</v>
+        <v>1.1869395503037409E-3</v>
       </c>
       <c r="Q43" s="16" t="e">
         <f t="shared" si="16"/>
@@ -5542,13 +5542,13 @@
       <c r="V43" s="87"/>
       <c r="W43" s="14">
         <f>$K43*$K43/3*W$30+$K43/2*W$31+W$32</f>
-        <v>1.2524801421274663E-3</v>
+        <v>1.1869395503037409E-3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E44,F44,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ad#0004</v>
+        <v>obj_003b4#0000</v>
       </c>
       <c r="C44" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B44,OisEngine)</f>
@@ -5559,11 +5559,11 @@
       </c>
       <c r="E44" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F44" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D44,"mf",TRUE)</f>
-        <v>42046</v>
+        <v>42074</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="33"/>
@@ -5574,11 +5574,11 @@
       </c>
       <c r="K44" s="119">
         <f t="shared" si="18"/>
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L44" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B44,_xll.ohTrigger(C44,InterestRatesTrigger))</f>
-        <v>5.8396797779118148E-4</v>
+        <v>5.950566287323592E-4</v>
       </c>
       <c r="N44" s="36"/>
       <c r="O44" s="33"/>
@@ -5591,7 +5591,7 @@
     <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E45,F45,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003aa#0004</v>
+        <v>obj_003a9#0000</v>
       </c>
       <c r="C45" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B45,OisEngine)</f>
@@ -5602,11 +5602,11 @@
       </c>
       <c r="E45" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F45" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D45,"mf",TRUE)</f>
-        <v>42074</v>
+        <v>42107</v>
       </c>
       <c r="G45" s="36"/>
       <c r="H45" s="33"/>
@@ -5617,11 +5617,11 @@
       </c>
       <c r="K45" s="119">
         <f t="shared" si="18"/>
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L45" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B45,_xll.ohTrigger(C45,InterestRatesTrigger))</f>
-        <v>5.8662225254729934E-4</v>
+        <v>5.9524971958185271E-4</v>
       </c>
       <c r="N45" s="36"/>
       <c r="O45" s="33"/>
@@ -5634,7 +5634,7 @@
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E46,F46,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ac#0004</v>
+        <v>obj_003af#0000</v>
       </c>
       <c r="C46" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B46,OisEngine)</f>
@@ -5645,11 +5645,11 @@
       </c>
       <c r="E46" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F46" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D46,"mf",TRUE)</f>
-        <v>42107</v>
+        <v>42135</v>
       </c>
       <c r="G46" s="36"/>
       <c r="H46" s="33"/>
@@ -5660,11 +5660,11 @@
       </c>
       <c r="K46" s="119">
         <f t="shared" si="18"/>
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L46" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B46,_xll.ohTrigger(C46,InterestRatesTrigger))</f>
-        <v>5.9178082191797159E-4</v>
+        <v>5.9178082227928153E-4</v>
       </c>
       <c r="N46" s="36"/>
       <c r="O46" s="33"/>
@@ -5677,7 +5677,7 @@
     <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E47,F47,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003ab#0004</v>
+        <v>obj_003ac#0000</v>
       </c>
       <c r="C47" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B47,OisEngine)</f>
@@ -5688,11 +5688,11 @@
       </c>
       <c r="E47" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F47" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D47,"mf",TRUE)</f>
-        <v>42135</v>
+        <v>42166</v>
       </c>
       <c r="G47" s="36"/>
       <c r="H47" s="33"/>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="L47" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B47,_xll.ohTrigger(C47,InterestRatesTrigger))</f>
-        <v>5.9327928078857289E-4</v>
+        <v>5.8437451767853039E-4</v>
       </c>
       <c r="N47" s="36"/>
       <c r="O47" s="33"/>
@@ -5720,7 +5720,7 @@
     <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="29" t="str">
         <f>_xll.qlMakeDatedOIS(,E48,F48,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003a7#0004</v>
+        <v>obj_003ae#0000</v>
       </c>
       <c r="C48" s="5" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B48,OisEngine)</f>
@@ -5731,11 +5731,11 @@
       </c>
       <c r="E48" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F48" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D48,"mf",TRUE)</f>
-        <v>42166</v>
+        <v>42198</v>
       </c>
       <c r="G48" s="36"/>
       <c r="H48" s="33"/>
@@ -5746,11 +5746,11 @@
       </c>
       <c r="K48" s="119">
         <f t="shared" si="18"/>
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L48" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B48,_xll.ohTrigger(C48,InterestRatesTrigger))</f>
-        <v>5.927800819310996E-4</v>
+        <v>5.7513419012944478E-4</v>
       </c>
       <c r="N48" s="36"/>
       <c r="O48" s="33"/>
@@ -5763,7 +5763,7 @@
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="30" t="str">
         <f>_xll.qlMakeDatedOIS(,E49,F49,OvernightIndex,0,,,,EvaluationDate)</f>
-        <v>obj_003b2#0004</v>
+        <v>obj_003b5#0000</v>
       </c>
       <c r="C49" s="10" t="b">
         <f>_xll.qlInstrumentSetPricingEngine(B49,OisEngine)</f>
@@ -5774,11 +5774,11 @@
       </c>
       <c r="E49" s="48">
         <f t="shared" si="13"/>
-        <v>41831</v>
+        <v>41862</v>
       </c>
       <c r="F49" s="24">
         <f>_xll.qlCalendarAdvance(Calendar,SettlementDate,D49,"mf",TRUE)</f>
-        <v>42198</v>
+        <v>42227</v>
       </c>
       <c r="G49" s="36"/>
       <c r="H49" s="33"/>
@@ -5789,11 +5789,11 @@
       </c>
       <c r="K49" s="119">
         <f t="shared" si="18"/>
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L49" s="3">
         <f>_xll.qlOvernightIndexedSwapFairRate(B49,_xll.ohTrigger(C49,InterestRatesTrigger))</f>
-        <v>5.9178082191767799E-4</v>
+        <v>5.6712328794147481E-4</v>
       </c>
       <c r="N49" s="58"/>
       <c r="O49" s="59"/>
@@ -5902,7 +5902,7 @@
       </c>
       <c r="P2" s="183">
         <f>_xll.ohTrigger(O3:O7)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="D3" s="155" t="str">
         <f>_xll.qlSimpleQuote(C3,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH1M_Quote#0004</v>
+        <v>JPYSND_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E3" s="156" t="str">
         <f>_xll.ohRangeRetrieveError(D3)</f>
@@ -5962,7 +5962,7 @@
       </c>
       <c r="D4" s="155" t="str">
         <f>_xll.qlSimpleQuote(C4,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH1M_Quote#0004</v>
+        <v>JPYSWD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E4" s="156" t="str">
         <f>_xll.ohRangeRetrieveError(D4)</f>
@@ -6002,7 +6002,7 @@
       </c>
       <c r="D5" s="155" t="str">
         <f>_xll.qlSimpleQuote(C5,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH1M_Quote#0004</v>
+        <v>JPY2WD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E5" s="156" t="str">
         <f>_xll.ohRangeRetrieveError(D5)</f>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="D6" s="155" t="str">
         <f>_xll.qlSimpleQuote(C6,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH1M_Quote#0004</v>
+        <v>JPY3WD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E6" s="156" t="str">
         <f>_xll.ohRangeRetrieveError(D6)</f>
@@ -6082,7 +6082,7 @@
       </c>
       <c r="D7" s="161" t="str">
         <f>_xll.qlSimpleQuote(C7,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH1M_Quote#0004</v>
+        <v>JPY1MD_SYNTH1M_Quote#0000</v>
       </c>
       <c r="E7" s="162" t="str">
         <f>_xll.ohRangeRetrieveError(D7)</f>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="D8" s="164" t="str">
         <f>_xll.qlSimpleQuote(C8,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH3M_Quote#0004</v>
+        <v>JPYSND_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E8" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(D8)</f>
@@ -6137,23 +6137,23 @@
       </c>
       <c r="J8" s="185">
         <f>ROUND(Depo_Calculation!$H34,6)</f>
-        <v>1.392E-3</v>
+        <v>1.359E-3</v>
       </c>
       <c r="K8" s="124"/>
       <c r="L8" s="134">
-        <v>1.224E-3</v>
+        <v>1.359E-3</v>
       </c>
       <c r="M8" s="121"/>
       <c r="N8" s="137">
-        <v>1.392E-3</v>
-      </c>
-      <c r="O8" s="198" t="e">
+        <v>1.359E-3</v>
+      </c>
+      <c r="O8" s="198">
         <f>_xll.qlSimpleQuoteSetValue(D8,ROUND(N8,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P8" s="184">
         <f>_xll.ohTrigger(O8:O14)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6170,7 +6170,7 @@
       </c>
       <c r="D9" s="154" t="str">
         <f>_xll.qlSimpleQuote(C9,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH3M_Quote#0004</v>
+        <v>JPYSWD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E9" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D9)</f>
@@ -6183,19 +6183,19 @@
       </c>
       <c r="J9" s="186">
         <f>ROUND(Depo_Calculation!$H35,6)</f>
-        <v>1.3879999999999999E-3</v>
+        <v>1.3519999999999999E-3</v>
       </c>
       <c r="K9" s="124"/>
       <c r="L9" s="134">
-        <v>1.235E-3</v>
+        <v>1.3519999999999999E-3</v>
       </c>
       <c r="M9" s="121"/>
       <c r="N9" s="137">
-        <v>1.3879999999999999E-3</v>
-      </c>
-      <c r="O9" s="138" t="e">
+        <v>1.3519999999999999E-3</v>
+      </c>
+      <c r="O9" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D9,ROUND(N9,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P9" s="158"/>
     </row>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="D10" s="154" t="str">
         <f>_xll.qlSimpleQuote(C10,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH3M_Quote#0004</v>
+        <v>JPY2WD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E10" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D10)</f>
@@ -6223,19 +6223,19 @@
       </c>
       <c r="J10" s="186">
         <f>ROUND(Depo_Calculation!$H36,6)</f>
-        <v>1.3829999999999999E-3</v>
+        <v>1.3470000000000001E-3</v>
       </c>
       <c r="K10" s="124"/>
       <c r="L10" s="134">
-        <v>1.2459999999999999E-3</v>
+        <v>1.3470000000000001E-3</v>
       </c>
       <c r="M10" s="121"/>
       <c r="N10" s="137">
-        <v>1.3829999999999999E-3</v>
-      </c>
-      <c r="O10" s="138" t="e">
+        <v>1.3470000000000001E-3</v>
+      </c>
+      <c r="O10" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D10,ROUND(N10,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P10" s="158"/>
     </row>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="D11" s="154" t="str">
         <f>_xll.qlSimpleQuote(C11,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH3M_Quote#0004</v>
+        <v>JPY3WD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E11" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D11)</f>
@@ -6263,19 +6263,19 @@
       </c>
       <c r="J11" s="186">
         <f>ROUND(Depo_Calculation!$H37,6)</f>
-        <v>1.379E-3</v>
+        <v>1.3439999999999999E-3</v>
       </c>
       <c r="K11" s="124"/>
       <c r="L11" s="134">
-        <v>1.2570000000000001E-3</v>
+        <v>1.3439999999999999E-3</v>
       </c>
       <c r="M11" s="121"/>
       <c r="N11" s="137">
-        <v>1.379E-3</v>
-      </c>
-      <c r="O11" s="138" t="e">
+        <v>1.3439999999999999E-3</v>
+      </c>
+      <c r="O11" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D11,ROUND(N11,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P11" s="158"/>
     </row>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="D12" s="154" t="str">
         <f>_xll.qlSimpleQuote(C12,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH3M_Quote#0004</v>
+        <v>JPY1MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E12" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D12)</f>
@@ -6303,19 +6303,19 @@
       </c>
       <c r="J12" s="186">
         <f>ROUND(Depo_Calculation!$H38,6)</f>
-        <v>1.3749999999999999E-3</v>
+        <v>1.341E-3</v>
       </c>
       <c r="K12" s="124"/>
       <c r="L12" s="134">
-        <v>1.2700000000000001E-3</v>
+        <v>1.341E-3</v>
       </c>
       <c r="M12" s="121"/>
       <c r="N12" s="137">
-        <v>1.3749999999999999E-3</v>
-      </c>
-      <c r="O12" s="138" t="e">
+        <v>1.341E-3</v>
+      </c>
+      <c r="O12" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D12,ROUND(N12,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P12" s="158"/>
     </row>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="D13" s="154" t="str">
         <f>_xll.qlSimpleQuote(C13,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2MD_SYNTH3M_Quote#0004</v>
+        <v>JPY2MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E13" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D13)</f>
@@ -6343,19 +6343,19 @@
       </c>
       <c r="J13" s="186">
         <f>ROUND(Depo_Calculation!$H39,6)</f>
-        <v>1.3569999999999999E-3</v>
+        <v>1.3259999999999999E-3</v>
       </c>
       <c r="K13" s="124"/>
       <c r="L13" s="134">
-        <v>1.3140000000000001E-3</v>
+        <v>1.3259999999999999E-3</v>
       </c>
       <c r="M13" s="121"/>
       <c r="N13" s="137">
-        <v>1.3569999999999999E-3</v>
-      </c>
-      <c r="O13" s="138" t="e">
+        <v>1.3259999999999999E-3</v>
+      </c>
+      <c r="O13" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D13,ROUND(N13,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P13" s="158"/>
     </row>
@@ -6370,7 +6370,7 @@
       </c>
       <c r="D14" s="161" t="str">
         <f>_xll.qlSimpleQuote(C14,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3MD_SYNTH3M_Quote#0004</v>
+        <v>JPY3MD_SYNTH3M_Quote#0000</v>
       </c>
       <c r="E14" s="176" t="str">
         <f>_xll.ohRangeRetrieveError(D14)</f>
@@ -6383,19 +6383,19 @@
       </c>
       <c r="J14" s="187">
         <f>ROUND(Depo_Calculation!$H40,6)</f>
-        <v>1.322E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="K14" s="174"/>
       <c r="L14" s="136">
-        <v>1.34E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="M14" s="174"/>
       <c r="N14" s="140">
-        <v>1.322E-3</v>
-      </c>
-      <c r="O14" s="141" t="e">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="O14" s="141">
         <f>_xll.qlSimpleQuoteSetValue(D14,ROUND(N14,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P14" s="174"/>
     </row>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="D15" s="164" t="str">
         <f>_xll.qlSimpleQuote(C15,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH6M_Quote#0004</v>
+        <v>JPYSND_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E15" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(D15)</f>
@@ -6425,23 +6425,23 @@
       </c>
       <c r="J15" s="185">
         <f>ROUND(Depo_Calculation!$I34,6)</f>
-        <v>2.258E-3</v>
+        <v>2.0230000000000001E-3</v>
       </c>
       <c r="K15" s="124"/>
       <c r="L15" s="134">
-        <v>2.0869999999999999E-3</v>
+        <v>2.0230000000000001E-3</v>
       </c>
       <c r="M15" s="121"/>
       <c r="N15" s="137">
-        <v>2.258E-3</v>
-      </c>
-      <c r="O15" s="138" t="e">
+        <v>2.0230000000000001E-3</v>
+      </c>
+      <c r="O15" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D15,ROUND(N15,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P15" s="158">
         <f>_xll.ohTrigger(O15:O24)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="D16" s="154" t="str">
         <f>_xll.qlSimpleQuote(C16,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH6M_Quote#0004</v>
+        <v>JPYSWD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E16" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D16)</f>
@@ -6471,19 +6471,19 @@
       </c>
       <c r="J16" s="186">
         <f>ROUND(Depo_Calculation!$I35,6)</f>
-        <v>2.2460000000000002E-3</v>
+        <v>2.0110000000000002E-3</v>
       </c>
       <c r="K16" s="124"/>
       <c r="L16" s="134">
-        <v>2.0709999999999999E-3</v>
+        <v>2.0110000000000002E-3</v>
       </c>
       <c r="M16" s="121"/>
       <c r="N16" s="137">
-        <v>2.2460000000000002E-3</v>
-      </c>
-      <c r="O16" s="138" t="e">
+        <v>2.0110000000000002E-3</v>
+      </c>
+      <c r="O16" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D16,ROUND(N16,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P16" s="158"/>
     </row>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="D17" s="154" t="str">
         <f>_xll.qlSimpleQuote(C17,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH6M_Quote#0004</v>
+        <v>JPY2WD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E17" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D17)</f>
@@ -6511,19 +6511,19 @@
       </c>
       <c r="J17" s="186">
         <f>ROUND(Depo_Calculation!$I36,6)</f>
-        <v>2.2260000000000001E-3</v>
+        <v>1.9970000000000001E-3</v>
       </c>
       <c r="K17" s="124"/>
       <c r="L17" s="134">
-        <v>2.052E-3</v>
+        <v>1.9970000000000001E-3</v>
       </c>
       <c r="M17" s="121"/>
       <c r="N17" s="137">
-        <v>2.2260000000000001E-3</v>
-      </c>
-      <c r="O17" s="138" t="e">
+        <v>1.9970000000000001E-3</v>
+      </c>
+      <c r="O17" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D17,ROUND(N17,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P17" s="158"/>
     </row>
@@ -6538,7 +6538,7 @@
       </c>
       <c r="D18" s="154" t="str">
         <f>_xll.qlSimpleQuote(C18,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH6M_Quote#0004</v>
+        <v>JPY3WD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E18" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D18)</f>
@@ -6551,19 +6551,19 @@
       </c>
       <c r="J18" s="186">
         <f>ROUND(Depo_Calculation!$I37,6)</f>
-        <v>2.2070000000000002E-3</v>
+        <v>1.9870000000000001E-3</v>
       </c>
       <c r="K18" s="124"/>
       <c r="L18" s="134">
-        <v>2.0339999999999998E-3</v>
+        <v>1.9870000000000001E-3</v>
       </c>
       <c r="M18" s="121"/>
       <c r="N18" s="137">
-        <v>2.2070000000000002E-3</v>
-      </c>
-      <c r="O18" s="138" t="e">
+        <v>1.9870000000000001E-3</v>
+      </c>
+      <c r="O18" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D18,ROUND(N18,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P18" s="158"/>
     </row>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="D19" s="154" t="str">
         <f>_xll.qlSimpleQuote(C19,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH6M_Quote#0004</v>
+        <v>JPY1MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E19" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D19)</f>
@@ -6591,19 +6591,19 @@
       </c>
       <c r="J19" s="186">
         <f>ROUND(Depo_Calculation!$I38,6)</f>
-        <v>2.1819999999999999E-3</v>
+        <v>1.9729999999999999E-3</v>
       </c>
       <c r="K19" s="124"/>
       <c r="L19" s="134">
-        <v>2.0110000000000002E-3</v>
+        <v>1.9729999999999999E-3</v>
       </c>
       <c r="M19" s="121"/>
       <c r="N19" s="137">
-        <v>2.1819999999999999E-3</v>
-      </c>
-      <c r="O19" s="138" t="e">
+        <v>1.9729999999999999E-3</v>
+      </c>
+      <c r="O19" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D19,ROUND(N19,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P19" s="158"/>
     </row>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="D20" s="154" t="str">
         <f>_xll.qlSimpleQuote(C20,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2MD_SYNTH6M_Quote#0004</v>
+        <v>JPY2MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E20" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D20)</f>
@@ -6631,19 +6631,19 @@
       </c>
       <c r="J20" s="186">
         <f>ROUND(Depo_Calculation!$I39,6)</f>
-        <v>2.101E-3</v>
+        <v>1.9220000000000001E-3</v>
       </c>
       <c r="K20" s="124"/>
       <c r="L20" s="134">
-        <v>1.941E-3</v>
+        <v>1.9220000000000001E-3</v>
       </c>
       <c r="M20" s="121"/>
       <c r="N20" s="137">
-        <v>2.101E-3</v>
-      </c>
-      <c r="O20" s="138" t="e">
+        <v>1.9220000000000001E-3</v>
+      </c>
+      <c r="O20" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D20,ROUND(N20,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P20" s="158"/>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D21" s="154" t="str">
         <f>_xll.qlSimpleQuote(C21,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3MD_SYNTH6M_Quote#0004</v>
+        <v>JPY3MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E21" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D21)</f>
@@ -6671,19 +6671,19 @@
       </c>
       <c r="J21" s="186">
         <f>ROUND(Depo_Calculation!$I40,6)</f>
-        <v>2.006E-3</v>
+        <v>1.861E-3</v>
       </c>
       <c r="K21" s="124"/>
       <c r="L21" s="134">
-        <v>1.892E-3</v>
+        <v>1.861E-3</v>
       </c>
       <c r="M21" s="121"/>
       <c r="N21" s="137">
-        <v>2.006E-3</v>
-      </c>
-      <c r="O21" s="138" t="e">
+        <v>1.861E-3</v>
+      </c>
+      <c r="O21" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D21,ROUND(N21,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P21" s="158"/>
     </row>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="D22" s="154" t="str">
         <f>_xll.qlSimpleQuote(C22,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY4MD_SYNTH6M_Quote#0004</v>
+        <v>JPY4MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E22" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D22)</f>
@@ -6711,19 +6711,19 @@
       </c>
       <c r="J22" s="186">
         <f>ROUND(Depo_Calculation!$I41,6)</f>
-        <v>1.952E-3</v>
+        <v>1.8320000000000001E-3</v>
       </c>
       <c r="K22" s="124"/>
       <c r="L22" s="134">
-        <v>1.83E-3</v>
+        <v>1.8320000000000001E-3</v>
       </c>
       <c r="M22" s="121"/>
       <c r="N22" s="137">
-        <v>1.952E-3</v>
-      </c>
-      <c r="O22" s="138" t="e">
+        <v>1.8320000000000001E-3</v>
+      </c>
+      <c r="O22" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D22,ROUND(N22,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P22" s="158"/>
     </row>
@@ -6738,7 +6738,7 @@
       </c>
       <c r="D23" s="154" t="str">
         <f>_xll.qlSimpleQuote(C23,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY5MD_SYNTH6M_Quote#0004</v>
+        <v>JPY5MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E23" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D23)</f>
@@ -6751,19 +6751,19 @@
       </c>
       <c r="J23" s="186">
         <f>ROUND(Depo_Calculation!$I42,6)</f>
-        <v>1.9059999999999999E-3</v>
+        <v>1.787E-3</v>
       </c>
       <c r="K23" s="124"/>
       <c r="L23" s="134">
-        <v>1.8010000000000001E-3</v>
+        <v>1.787E-3</v>
       </c>
       <c r="M23" s="121"/>
       <c r="N23" s="137">
-        <v>1.9059999999999999E-3</v>
-      </c>
-      <c r="O23" s="138" t="e">
+        <v>1.787E-3</v>
+      </c>
+      <c r="O23" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D23,ROUND(N23,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P23" s="158"/>
     </row>
@@ -6778,7 +6778,7 @@
       </c>
       <c r="D24" s="154" t="str">
         <f>_xll.qlSimpleQuote(C24,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY6MD_SYNTH6M_Quote#0004</v>
+        <v>JPY6MD_SYNTH6M_Quote#0000</v>
       </c>
       <c r="E24" s="176" t="str">
         <f>_xll.ohRangeRetrieveError(D24)</f>
@@ -6791,19 +6791,19 @@
       </c>
       <c r="J24" s="187">
         <f>ROUND(Depo_Calculation!$I43,6)</f>
-        <v>1.8439999999999999E-3</v>
+        <v>1.779E-3</v>
       </c>
       <c r="K24" s="179"/>
       <c r="L24" s="136">
-        <v>1.787E-3</v>
+        <v>1.779E-3</v>
       </c>
       <c r="M24" s="180"/>
       <c r="N24" s="140">
-        <v>1.8439999999999999E-3</v>
-      </c>
-      <c r="O24" s="138" t="e">
+        <v>1.779E-3</v>
+      </c>
+      <c r="O24" s="138">
         <f>_xll.qlSimpleQuoteSetValue(D24,ROUND(N24,6),EvaluationDate)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="P24" s="181"/>
     </row>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="D25" s="164" t="str">
         <f>_xll.qlSimpleQuote(C25,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSND_SYNTH1Y_Quote#0004</v>
+        <v>JPYSND_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E25" s="165" t="str">
         <f>_xll.ohRangeRetrieveError(D25)</f>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="P25" s="158">
         <f>_xll.ohTrigger(O25:O40)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="190" customFormat="1" x14ac:dyDescent="0.2">
@@ -6867,7 +6867,7 @@
       </c>
       <c r="D26" s="154" t="str">
         <f>_xll.qlSimpleQuote(C26,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPYSWD_SYNTH1Y_Quote#0004</v>
+        <v>JPYSWD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E26" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D26)</f>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="D27" s="154" t="str">
         <f>_xll.qlSimpleQuote(C27,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2WD_SYNTH1Y_Quote#0004</v>
+        <v>JPY2WD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E27" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D27)</f>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D28" s="154" t="str">
         <f>_xll.qlSimpleQuote(C28,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3WD_SYNTH1Y_Quote#0004</v>
+        <v>JPY3WD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E28" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D28)</f>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="D29" s="154" t="str">
         <f>_xll.qlSimpleQuote(C29,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1MD_SYNTH1Y_Quote#0004</v>
+        <v>JPY1MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E29" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D29)</f>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="D30" s="154" t="str">
         <f>_xll.qlSimpleQuote(C30,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY2MD_SYNTH1Y_Quote#0004</v>
+        <v>JPY2MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E30" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D30)</f>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="D31" s="154" t="str">
         <f>_xll.qlSimpleQuote(C31,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY3MD_SYNTH1Y_Quote#0004</v>
+        <v>JPY3MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E31" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D31)</f>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="D32" s="154" t="str">
         <f>_xll.qlSimpleQuote(C32,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY4MD_SYNTH1Y_Quote#0004</v>
+        <v>JPY4MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E32" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D32)</f>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="D33" s="154" t="str">
         <f>_xll.qlSimpleQuote(C33,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY5MD_SYNTH1Y_Quote#0004</v>
+        <v>JPY5MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E33" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D33)</f>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="D34" s="154" t="str">
         <f>_xll.qlSimpleQuote(C34,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY6MD_SYNTH1Y_Quote#0004</v>
+        <v>JPY6MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E34" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D34)</f>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="D35" s="154" t="str">
         <f>_xll.qlSimpleQuote(C35,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY7MD_SYNTH1Y_Quote#0004</v>
+        <v>JPY7MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E35" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D35)</f>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="D36" s="154" t="str">
         <f>_xll.qlSimpleQuote(C36,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY8MD_SYNTH1Y_Quote#0004</v>
+        <v>JPY8MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E36" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D36)</f>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="D37" s="154" t="str">
         <f>_xll.qlSimpleQuote(C37,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY9MD_SYNTH1Y_Quote#0004</v>
+        <v>JPY9MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E37" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D37)</f>
@@ -7349,7 +7349,7 @@
       </c>
       <c r="D38" s="154" t="str">
         <f>_xll.qlSimpleQuote(C38,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY10MD_SYNTH1Y_Quote#0004</v>
+        <v>JPY10MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E38" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D38)</f>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="D39" s="154" t="str">
         <f>_xll.qlSimpleQuote(C39,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY11MD_SYNTH1Y_Quote#0004</v>
+        <v>JPY11MD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E39" s="167" t="str">
         <f>_xll.ohRangeRetrieveError(D39)</f>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="D40" s="161" t="str">
         <f>_xll.qlSimpleQuote(C40,,RateTickValue,Permanent,EvaluationDate,ObjectOverwrite)</f>
-        <v>JPY1YD_SYNTH1Y_Quote#0004</v>
+        <v>JPY1YD_SYNTH1Y_Quote#0000</v>
       </c>
       <c r="E40" s="176" t="str">
         <f>_xll.ohRangeRetrieveError(D40)</f>
